--- a/01_data-input/wiiw/gva_NACE.xlsx
+++ b/01_data-input/wiiw/gva_NACE.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\wiiw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E7E95-A02A-420F-83BB-370C903B0C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_clean" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="65">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -181,103 +188,201 @@
   <si>
     <t>http://wiiw.ac.at/annual-database.html</t>
   </si>
+  <si>
+    <t>F Constrution</t>
+  </si>
+  <si>
+    <t>G-I Retail, Transport</t>
+  </si>
+  <si>
+    <t>J Information and Communication</t>
+  </si>
+  <si>
+    <t>K Financial and Insurance</t>
+  </si>
+  <si>
+    <t>L Real Estate</t>
+  </si>
+  <si>
+    <t>M-N Professional and Scientific Activities</t>
+  </si>
+  <si>
+    <t>O-Q Public Administration, Defence, Education</t>
+  </si>
+  <si>
+    <t>R-U Arts, Entertainment</t>
+  </si>
+  <si>
+    <t>C-E Industry</t>
+  </si>
+  <si>
+    <t>A - B Primary Sector</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="8"/>
       <color rgb="FF0101DF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -567,61 +672,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AH71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.96" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.24" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.831403" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.831543" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="53.992467" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="31.495605" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="26" customWidth="true" style="0"/>
-    <col min="8" max="8" width="43.660575" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="9" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9" customWidth="true" style="0"/>
-    <col min="11" max="11" width="9" customWidth="true" style="0"/>
-    <col min="12" max="12" width="9" customWidth="true" style="0"/>
-    <col min="13" max="13" width="9" customWidth="true" style="0"/>
-    <col min="14" max="14" width="9" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9" customWidth="true" style="0"/>
-    <col min="17" max="17" width="9" customWidth="true" style="0"/>
-    <col min="18" max="18" width="9" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9" customWidth="true" style="0"/>
-    <col min="20" max="20" width="9" customWidth="true" style="0"/>
-    <col min="21" max="21" width="9" customWidth="true" style="0"/>
-    <col min="22" max="22" width="9" customWidth="true" style="0"/>
-    <col min="23" max="23" width="9" customWidth="true" style="0"/>
-    <col min="24" max="24" width="9" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9" customWidth="true" style="0"/>
-    <col min="26" max="26" width="9" customWidth="true" style="0"/>
-    <col min="27" max="27" width="9" customWidth="true" style="0"/>
-    <col min="28" max="28" width="9" customWidth="true" style="0"/>
-    <col min="29" max="29" width="9" customWidth="true" style="0"/>
-    <col min="30" max="30" width="9" customWidth="true" style="0"/>
-    <col min="31" max="31" width="9" customWidth="true" style="0"/>
-    <col min="32" max="32" width="9" customWidth="true" style="0"/>
-    <col min="33" max="33" width="9" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="34" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -629,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -637,7 +714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -645,7 +722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -653,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -754,7 +831,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -795,43 +872,43 @@
         <v>25</v>
       </c>
       <c r="N8" s="3">
-        <v>1063.937</v>
+        <v>1063.9369999999999</v>
       </c>
       <c r="O8" s="3">
-        <v>1156.323</v>
+        <v>1156.3230000000001</v>
       </c>
       <c r="P8" s="3">
-        <v>1240.728</v>
+        <v>1240.7280000000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>1193.708</v>
+        <v>1193.7080000000001</v>
       </c>
       <c r="R8" s="3">
         <v>1373.2</v>
       </c>
       <c r="S8" s="3">
-        <v>1464.514</v>
+        <v>1464.5139999999999</v>
       </c>
       <c r="T8" s="3">
-        <v>1615.466</v>
+        <v>1615.4659999999999</v>
       </c>
       <c r="U8" s="3">
-        <v>1737.302</v>
+        <v>1737.3019999999999</v>
       </c>
       <c r="V8" s="3">
-        <v>1839.247</v>
+        <v>1839.2470000000001</v>
       </c>
       <c r="W8" s="3">
-        <v>1754.892</v>
+        <v>1754.8920000000001</v>
       </c>
       <c r="X8" s="3">
-        <v>1723.995</v>
+        <v>1723.9949999999999</v>
       </c>
       <c r="Y8" s="3">
-        <v>1772.642</v>
+        <v>1772.6420000000001</v>
       </c>
       <c r="Z8" s="3">
-        <v>1609.464</v>
+        <v>1609.4639999999999</v>
       </c>
       <c r="AA8" s="3">
         <v>1832.039</v>
@@ -843,7 +920,7 @@
         <v>1746.604</v>
       </c>
       <c r="AD8" s="3">
-        <v>1866.022</v>
+        <v>1866.0219999999999</v>
       </c>
       <c r="AE8" s="3">
         <v>1727.222</v>
@@ -852,10 +929,10 @@
         <v>1941.056</v>
       </c>
       <c r="AG8" s="3">
-        <v>1950.291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
+        <v>1950.2909999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -896,7 +973,7 @@
         <v>25</v>
       </c>
       <c r="N9" s="3">
-        <v>207.295</v>
+        <v>207.29499999999999</v>
       </c>
       <c r="O9" s="3">
         <v>228.124</v>
@@ -905,58 +982,58 @@
         <v>230.691</v>
       </c>
       <c r="Q9" s="3">
-        <v>245.367</v>
+        <v>245.36699999999999</v>
       </c>
       <c r="R9" s="3">
-        <v>270.658</v>
+        <v>270.65800000000002</v>
       </c>
       <c r="S9" s="3">
-        <v>319.943</v>
+        <v>319.94299999999998</v>
       </c>
       <c r="T9" s="3">
         <v>355.173</v>
       </c>
       <c r="U9" s="3">
-        <v>429.009</v>
+        <v>429.00900000000001</v>
       </c>
       <c r="V9" s="3">
-        <v>506.131</v>
+        <v>506.13099999999997</v>
       </c>
       <c r="W9" s="3">
         <v>495.726</v>
       </c>
       <c r="X9" s="3">
-        <v>485.332</v>
+        <v>485.33199999999999</v>
       </c>
       <c r="Y9" s="3">
-        <v>573.386</v>
+        <v>573.38599999999997</v>
       </c>
       <c r="Z9" s="3">
-        <v>590.276</v>
+        <v>590.27599999999995</v>
       </c>
       <c r="AA9" s="3">
-        <v>580.936</v>
+        <v>580.93600000000004</v>
       </c>
       <c r="AB9" s="3">
         <v>549.798</v>
       </c>
       <c r="AC9" s="3">
-        <v>556.797</v>
+        <v>556.79700000000003</v>
       </c>
       <c r="AD9" s="3">
-        <v>560.658</v>
+        <v>560.65800000000002</v>
       </c>
       <c r="AE9" s="3">
-        <v>603.325</v>
+        <v>603.32500000000005</v>
       </c>
       <c r="AF9" s="3">
-        <v>586.203</v>
+        <v>586.20299999999997</v>
       </c>
       <c r="AG9" s="3">
-        <v>560.124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
+        <v>560.12400000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -997,13 +1074,13 @@
         <v>25</v>
       </c>
       <c r="N10" s="3">
-        <v>1098.753</v>
+        <v>1098.7529999999999</v>
       </c>
       <c r="O10" s="3">
         <v>1192.567</v>
       </c>
       <c r="P10" s="3">
-        <v>1302.253</v>
+        <v>1302.2529999999999</v>
       </c>
       <c r="Q10" s="3">
         <v>1369.674</v>
@@ -1018,25 +1095,25 @@
         <v>2009.289</v>
       </c>
       <c r="U10" s="3">
-        <v>2437.666</v>
+        <v>2437.6660000000002</v>
       </c>
       <c r="V10" s="3">
         <v>2810.26</v>
       </c>
       <c r="W10" s="3">
-        <v>2598.275</v>
+        <v>2598.2750000000001</v>
       </c>
       <c r="X10" s="3">
-        <v>2760.926</v>
+        <v>2760.9259999999999</v>
       </c>
       <c r="Y10" s="3">
-        <v>2863.408</v>
+        <v>2863.4079999999999</v>
       </c>
       <c r="Z10" s="3">
-        <v>2765.214</v>
+        <v>2765.2139999999999</v>
       </c>
       <c r="AA10" s="3">
-        <v>2928.824</v>
+        <v>2928.8240000000001</v>
       </c>
       <c r="AB10" s="3">
         <v>2993.096</v>
@@ -1045,19 +1122,19 @@
         <v>3216.259</v>
       </c>
       <c r="AD10" s="3">
-        <v>3575.467</v>
+        <v>3575.4670000000001</v>
       </c>
       <c r="AE10" s="3">
-        <v>3995.689</v>
+        <v>3995.6889999999999</v>
       </c>
       <c r="AF10" s="3">
         <v>4321.45</v>
       </c>
       <c r="AG10" s="3">
-        <v>4465.958</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
+        <v>4465.9579999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1098,31 +1175,31 @@
         <v>25</v>
       </c>
       <c r="N11" s="3">
-        <v>424.614</v>
+        <v>424.61399999999998</v>
       </c>
       <c r="O11" s="3">
-        <v>466.508</v>
+        <v>466.50799999999998</v>
       </c>
       <c r="P11" s="3">
         <v>467.447</v>
       </c>
       <c r="Q11" s="3">
-        <v>511.171</v>
+        <v>511.17099999999999</v>
       </c>
       <c r="R11" s="3">
-        <v>675.696</v>
+        <v>675.69600000000003</v>
       </c>
       <c r="S11" s="3">
-        <v>724.335</v>
+        <v>724.33500000000004</v>
       </c>
       <c r="T11" s="3">
-        <v>779.436</v>
+        <v>779.43600000000004</v>
       </c>
       <c r="U11" s="3">
-        <v>720.116</v>
+        <v>720.11599999999999</v>
       </c>
       <c r="V11" s="3">
-        <v>974.792</v>
+        <v>974.79200000000003</v>
       </c>
       <c r="W11" s="3">
         <v>1013.438</v>
@@ -1131,25 +1208,25 @@
         <v>1060.306</v>
       </c>
       <c r="Y11" s="3">
-        <v>1024.486</v>
+        <v>1024.4860000000001</v>
       </c>
       <c r="Z11" s="3">
-        <v>971.271</v>
+        <v>971.27099999999996</v>
       </c>
       <c r="AA11" s="3">
         <v>1130.402</v>
       </c>
       <c r="AB11" s="3">
-        <v>1095.09</v>
+        <v>1095.0899999999999</v>
       </c>
       <c r="AC11" s="3">
-        <v>1090.618</v>
+        <v>1090.6179999999999</v>
       </c>
       <c r="AD11" s="3">
-        <v>1151.447</v>
+        <v>1151.4469999999999</v>
       </c>
       <c r="AE11" s="3">
-        <v>1152.794</v>
+        <v>1152.7940000000001</v>
       </c>
       <c r="AF11" s="3">
         <v>1445.75</v>
@@ -1158,7 +1235,7 @@
         <v>1424.673</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1202,64 +1279,64 @@
         <v>127.264</v>
       </c>
       <c r="O12" s="3">
-        <v>135.669</v>
+        <v>135.66900000000001</v>
       </c>
       <c r="P12" s="3">
-        <v>140.133</v>
+        <v>140.13300000000001</v>
       </c>
       <c r="Q12" s="3">
         <v>151.679</v>
       </c>
       <c r="R12" s="3">
-        <v>164.949</v>
+        <v>164.94900000000001</v>
       </c>
       <c r="S12" s="3">
-        <v>202.281</v>
+        <v>202.28100000000001</v>
       </c>
       <c r="T12" s="3">
-        <v>206.234</v>
+        <v>206.23400000000001</v>
       </c>
       <c r="U12" s="3">
-        <v>230.689</v>
+        <v>230.68899999999999</v>
       </c>
       <c r="V12" s="3">
-        <v>248.421</v>
+        <v>248.42099999999999</v>
       </c>
       <c r="W12" s="3">
-        <v>252.954</v>
+        <v>252.95400000000001</v>
       </c>
       <c r="X12" s="3">
         <v>273.642</v>
       </c>
       <c r="Y12" s="3">
-        <v>283.917</v>
+        <v>283.91699999999997</v>
       </c>
       <c r="Z12" s="3">
-        <v>299.102</v>
+        <v>299.10199999999998</v>
       </c>
       <c r="AA12" s="3">
         <v>292.005</v>
       </c>
       <c r="AB12" s="3">
-        <v>303.396</v>
+        <v>303.39600000000002</v>
       </c>
       <c r="AC12" s="3">
-        <v>301.993</v>
+        <v>301.99299999999999</v>
       </c>
       <c r="AD12" s="3">
-        <v>305.865</v>
+        <v>305.86500000000001</v>
       </c>
       <c r="AE12" s="3">
-        <v>341.948</v>
+        <v>341.94799999999998</v>
       </c>
       <c r="AF12" s="3">
-        <v>353.818</v>
+        <v>353.81799999999998</v>
       </c>
       <c r="AG12" s="3">
-        <v>369.549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+        <v>369.54899999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1300,25 +1377,25 @@
         <v>25</v>
       </c>
       <c r="N13" s="3">
-        <v>687.708</v>
+        <v>687.70799999999997</v>
       </c>
       <c r="O13" s="3">
-        <v>631.639</v>
+        <v>631.63900000000001</v>
       </c>
       <c r="P13" s="3">
-        <v>630.141</v>
+        <v>630.14099999999996</v>
       </c>
       <c r="Q13" s="3">
-        <v>641.211</v>
+        <v>641.21100000000001</v>
       </c>
       <c r="R13" s="3">
-        <v>667.011</v>
+        <v>667.01099999999997</v>
       </c>
       <c r="S13" s="3">
-        <v>781.478</v>
+        <v>781.47799999999995</v>
       </c>
       <c r="T13" s="3">
-        <v>867.917</v>
+        <v>867.91700000000003</v>
       </c>
       <c r="U13" s="3">
         <v>1091.739</v>
@@ -1330,7 +1407,7 @@
         <v>1320.364</v>
       </c>
       <c r="X13" s="3">
-        <v>1115.243</v>
+        <v>1115.2429999999999</v>
       </c>
       <c r="Y13" s="3">
         <v>1076.375</v>
@@ -1354,13 +1431,13 @@
         <v>1259.376</v>
       </c>
       <c r="AF13" s="3">
-        <v>1340.834</v>
+        <v>1340.8340000000001</v>
       </c>
       <c r="AG13" s="3">
         <v>1483.145</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1401,28 +1478,28 @@
         <v>25</v>
       </c>
       <c r="N14" s="3">
-        <v>1084.544</v>
+        <v>1084.5440000000001</v>
       </c>
       <c r="O14" s="3">
-        <v>1267.736</v>
+        <v>1267.7360000000001</v>
       </c>
       <c r="P14" s="3">
-        <v>1442.909</v>
+        <v>1442.9090000000001</v>
       </c>
       <c r="Q14" s="3">
-        <v>1619.801</v>
+        <v>1619.8009999999999</v>
       </c>
       <c r="R14" s="3">
-        <v>1903.637</v>
+        <v>1903.6369999999999</v>
       </c>
       <c r="S14" s="3">
-        <v>2103.718</v>
+        <v>2103.7179999999998</v>
       </c>
       <c r="T14" s="3">
-        <v>2420.32</v>
+        <v>2420.3200000000002</v>
       </c>
       <c r="U14" s="3">
-        <v>2769.591</v>
+        <v>2769.5909999999999</v>
       </c>
       <c r="V14" s="3">
         <v>3364.576</v>
@@ -1440,13 +1517,13 @@
         <v>3510.51</v>
       </c>
       <c r="AA14" s="3">
-        <v>3561.022</v>
+        <v>3561.0219999999999</v>
       </c>
       <c r="AB14" s="3">
-        <v>3681.554</v>
+        <v>3681.5540000000001</v>
       </c>
       <c r="AC14" s="3">
-        <v>3765.519</v>
+        <v>3765.5189999999998</v>
       </c>
       <c r="AD14" s="3">
         <v>3975.05</v>
@@ -1458,10 +1535,10 @@
         <v>4639.335</v>
       </c>
       <c r="AG14" s="3">
-        <v>5089.938</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+        <v>5089.9380000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1502,67 +1579,67 @@
         <v>25</v>
       </c>
       <c r="N15" s="3">
-        <v>383.051</v>
+        <v>383.05099999999999</v>
       </c>
       <c r="O15" s="3">
-        <v>415.248</v>
+        <v>415.24799999999999</v>
       </c>
       <c r="P15" s="3">
         <v>441.774</v>
       </c>
       <c r="Q15" s="3">
-        <v>469.833</v>
+        <v>469.83300000000003</v>
       </c>
       <c r="R15" s="3">
-        <v>507.468</v>
+        <v>507.46800000000002</v>
       </c>
       <c r="S15" s="3">
-        <v>598.7619999999999</v>
+        <v>598.76199999999994</v>
       </c>
       <c r="T15" s="3">
-        <v>663.4880000000001</v>
+        <v>663.48800000000006</v>
       </c>
       <c r="U15" s="3">
-        <v>744.028</v>
+        <v>744.02800000000002</v>
       </c>
       <c r="V15" s="3">
-        <v>839.535</v>
+        <v>839.53499999999997</v>
       </c>
       <c r="W15" s="3">
-        <v>795.092</v>
+        <v>795.09199999999998</v>
       </c>
       <c r="X15" s="3">
-        <v>822.967</v>
+        <v>822.96699999999998</v>
       </c>
       <c r="Y15" s="3">
-        <v>858.859</v>
+        <v>858.85900000000004</v>
       </c>
       <c r="Z15" s="3">
-        <v>887.218</v>
+        <v>887.21799999999996</v>
       </c>
       <c r="AA15" s="3">
-        <v>925.353</v>
+        <v>925.35299999999995</v>
       </c>
       <c r="AB15" s="3">
-        <v>995.742</v>
+        <v>995.74199999999996</v>
       </c>
       <c r="AC15" s="3">
         <v>1014.918</v>
       </c>
       <c r="AD15" s="3">
-        <v>1058.715</v>
+        <v>1058.7149999999999</v>
       </c>
       <c r="AE15" s="3">
-        <v>1158.714</v>
+        <v>1158.7139999999999</v>
       </c>
       <c r="AF15" s="3">
-        <v>1188.561</v>
+        <v>1188.5609999999999</v>
       </c>
       <c r="AG15" s="3">
-        <v>1244.406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
+        <v>1244.4059999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1603,28 +1680,28 @@
         <v>25</v>
       </c>
       <c r="N16" s="3">
-        <v>342.144</v>
+        <v>342.14400000000001</v>
       </c>
       <c r="O16" s="3">
-        <v>358.167</v>
+        <v>358.16699999999997</v>
       </c>
       <c r="P16" s="3">
-        <v>394.382</v>
+        <v>394.38200000000001</v>
       </c>
       <c r="Q16" s="3">
-        <v>411.235</v>
+        <v>411.23500000000001</v>
       </c>
       <c r="R16" s="3">
-        <v>406.433</v>
+        <v>406.43299999999999</v>
       </c>
       <c r="S16" s="3">
-        <v>424.592</v>
+        <v>424.59199999999998</v>
       </c>
       <c r="T16" s="3">
         <v>454.45</v>
       </c>
       <c r="U16" s="3">
-        <v>493.369</v>
+        <v>493.36900000000003</v>
       </c>
       <c r="V16" s="3">
         <v>521.99</v>
@@ -1633,37 +1710,37 @@
         <v>512.399</v>
       </c>
       <c r="X16" s="3">
-        <v>543.249</v>
+        <v>543.24900000000002</v>
       </c>
       <c r="Y16" s="3">
         <v>544.74</v>
       </c>
       <c r="Z16" s="3">
-        <v>553.614</v>
+        <v>553.61400000000003</v>
       </c>
       <c r="AA16" s="3">
         <v>551.9</v>
       </c>
       <c r="AB16" s="3">
-        <v>543.717</v>
+        <v>543.71699999999998</v>
       </c>
       <c r="AC16" s="3">
-        <v>558.546</v>
+        <v>558.54600000000005</v>
       </c>
       <c r="AD16" s="3">
         <v>575.87</v>
       </c>
       <c r="AE16" s="3">
-        <v>648.756</v>
+        <v>648.75599999999997</v>
       </c>
       <c r="AF16" s="3">
-        <v>679.861</v>
+        <v>679.86099999999999</v>
       </c>
       <c r="AG16" s="3">
-        <v>727.124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
+        <v>727.12400000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1704,67 +1781,67 @@
         <v>25</v>
       </c>
       <c r="N17" s="3">
-        <v>524.551</v>
+        <v>524.55100000000004</v>
       </c>
       <c r="O17" s="3">
-        <v>628.164</v>
+        <v>628.16399999999999</v>
       </c>
       <c r="P17" s="3">
         <v>728.024</v>
       </c>
       <c r="Q17" s="3">
-        <v>819.381</v>
+        <v>819.38099999999997</v>
       </c>
       <c r="R17" s="3">
-        <v>889.163</v>
+        <v>889.16300000000001</v>
       </c>
       <c r="S17" s="3">
-        <v>921.208</v>
+        <v>921.20799999999997</v>
       </c>
       <c r="T17" s="3">
         <v>949.08</v>
       </c>
       <c r="U17" s="3">
-        <v>1025.032</v>
+        <v>1025.0319999999999</v>
       </c>
       <c r="V17" s="3">
         <v>1145.722</v>
       </c>
       <c r="W17" s="3">
-        <v>1161.901</v>
+        <v>1161.9010000000001</v>
       </c>
       <c r="X17" s="3">
-        <v>1177.524</v>
+        <v>1177.5239999999999</v>
       </c>
       <c r="Y17" s="3">
         <v>1229.375</v>
       </c>
       <c r="Z17" s="3">
-        <v>1243.753</v>
+        <v>1243.7529999999999</v>
       </c>
       <c r="AA17" s="3">
-        <v>1272.379</v>
+        <v>1272.3789999999999</v>
       </c>
       <c r="AB17" s="3">
-        <v>1293.746</v>
+        <v>1293.7460000000001</v>
       </c>
       <c r="AC17" s="3">
         <v>1294.692</v>
       </c>
       <c r="AD17" s="3">
-        <v>1289.966</v>
+        <v>1289.9659999999999</v>
       </c>
       <c r="AE17" s="3">
         <v>1314.521</v>
       </c>
       <c r="AF17" s="3">
-        <v>1363.311</v>
+        <v>1363.3109999999999</v>
       </c>
       <c r="AG17" s="3">
         <v>1464.2</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1805,67 +1882,67 @@
         <v>25</v>
       </c>
       <c r="N18" s="3">
-        <v>339.583</v>
+        <v>339.58300000000003</v>
       </c>
       <c r="O18" s="3">
-        <v>346.658</v>
+        <v>346.65800000000002</v>
       </c>
       <c r="P18" s="3">
-        <v>394.135</v>
+        <v>394.13499999999999</v>
       </c>
       <c r="Q18" s="3">
         <v>450.697</v>
       </c>
       <c r="R18" s="3">
-        <v>512.117</v>
+        <v>512.11699999999996</v>
       </c>
       <c r="S18" s="3">
-        <v>616.606</v>
+        <v>616.60599999999999</v>
       </c>
       <c r="T18" s="3">
-        <v>679.8390000000001</v>
+        <v>679.83900000000006</v>
       </c>
       <c r="U18" s="3">
         <v>847.51</v>
       </c>
       <c r="V18" s="3">
-        <v>891.703</v>
+        <v>891.70299999999997</v>
       </c>
       <c r="W18" s="3">
-        <v>917.247</v>
+        <v>917.24699999999996</v>
       </c>
       <c r="X18" s="3">
         <v>939.52</v>
       </c>
       <c r="Y18" s="3">
-        <v>995.986</v>
+        <v>995.98599999999999</v>
       </c>
       <c r="Z18" s="3">
-        <v>988.688</v>
+        <v>988.68799999999999</v>
       </c>
       <c r="AA18" s="3">
-        <v>995.239</v>
+        <v>995.23900000000003</v>
       </c>
       <c r="AB18" s="3">
-        <v>1030.849</v>
+        <v>1030.8489999999999</v>
       </c>
       <c r="AC18" s="3">
-        <v>1048.466</v>
+        <v>1048.4659999999999</v>
       </c>
       <c r="AD18" s="3">
         <v>1101.501</v>
       </c>
       <c r="AE18" s="3">
-        <v>1200.621</v>
+        <v>1200.6210000000001</v>
       </c>
       <c r="AF18" s="3">
         <v>1255.636</v>
       </c>
       <c r="AG18" s="3">
-        <v>1311.411</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
+        <v>1311.4110000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1912,7 +1989,7 @@
         <v>1133.32</v>
       </c>
       <c r="P19" s="3">
-        <v>1194.032</v>
+        <v>1194.0319999999999</v>
       </c>
       <c r="Q19" s="3">
         <v>1216.556</v>
@@ -1924,22 +2001,22 @@
         <v>1223.307</v>
       </c>
       <c r="T19" s="3">
-        <v>1216.678</v>
+        <v>1216.6780000000001</v>
       </c>
       <c r="U19" s="3">
-        <v>1217.122</v>
+        <v>1217.1220000000001</v>
       </c>
       <c r="V19" s="3">
-        <v>1241.262</v>
+        <v>1241.2619999999999</v>
       </c>
       <c r="W19" s="3">
-        <v>1303.022</v>
+        <v>1303.0219999999999</v>
       </c>
       <c r="X19" s="3">
         <v>1319.586</v>
       </c>
       <c r="Y19" s="3">
-        <v>1322.667</v>
+        <v>1322.6669999999999</v>
       </c>
       <c r="Z19" s="3">
         <v>1353.117</v>
@@ -1951,22 +2028,22 @@
         <v>1411.19</v>
       </c>
       <c r="AC19" s="3">
-        <v>1435.717</v>
+        <v>1435.7170000000001</v>
       </c>
       <c r="AD19" s="3">
-        <v>1472.409</v>
+        <v>1472.4090000000001</v>
       </c>
       <c r="AE19" s="3">
         <v>1604.182</v>
       </c>
       <c r="AF19" s="3">
-        <v>1667.237</v>
+        <v>1667.2370000000001</v>
       </c>
       <c r="AG19" s="3">
         <v>1713.635</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2007,58 +2084,58 @@
         <v>25</v>
       </c>
       <c r="N20" s="3">
-        <v>232.362</v>
+        <v>232.36199999999999</v>
       </c>
       <c r="O20" s="3">
-        <v>236.401</v>
+        <v>236.40100000000001</v>
       </c>
       <c r="P20" s="3">
-        <v>286.106</v>
+        <v>286.10599999999999</v>
       </c>
       <c r="Q20" s="3">
-        <v>321.982</v>
+        <v>321.98200000000003</v>
       </c>
       <c r="R20" s="3">
         <v>378.351</v>
       </c>
       <c r="S20" s="3">
-        <v>468.585</v>
+        <v>468.58499999999998</v>
       </c>
       <c r="T20" s="3">
-        <v>497.704</v>
+        <v>497.70400000000001</v>
       </c>
       <c r="U20" s="3">
         <v>573.471</v>
       </c>
       <c r="V20" s="3">
-        <v>638.367</v>
+        <v>638.36699999999996</v>
       </c>
       <c r="W20" s="3">
-        <v>660.365</v>
+        <v>660.36500000000001</v>
       </c>
       <c r="X20" s="3">
-        <v>686.706</v>
+        <v>686.70600000000002</v>
       </c>
       <c r="Y20" s="3">
-        <v>731.111</v>
+        <v>731.11099999999999</v>
       </c>
       <c r="Z20" s="3">
-        <v>752.614</v>
+        <v>752.61400000000003</v>
       </c>
       <c r="AA20" s="3">
-        <v>698.193</v>
+        <v>698.19299999999998</v>
       </c>
       <c r="AB20" s="3">
         <v>708.08</v>
       </c>
       <c r="AC20" s="3">
-        <v>782.002</v>
+        <v>782.00199999999995</v>
       </c>
       <c r="AD20" s="3">
-        <v>848.441</v>
+        <v>848.44100000000003</v>
       </c>
       <c r="AE20" s="3">
-        <v>850.885</v>
+        <v>850.88499999999999</v>
       </c>
       <c r="AF20" s="3">
         <v>915.351</v>
@@ -2067,7 +2144,7 @@
         <v>1005.564</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2108,19 +2185,19 @@
         <v>25</v>
       </c>
       <c r="N21" s="3">
-        <v>57.353</v>
+        <v>57.353000000000002</v>
       </c>
       <c r="O21" s="3">
-        <v>60.973</v>
+        <v>60.972999999999999</v>
       </c>
       <c r="P21" s="3">
         <v>65.7</v>
       </c>
       <c r="Q21" s="3">
-        <v>74.428</v>
+        <v>74.427999999999997</v>
       </c>
       <c r="R21" s="3">
-        <v>87.146</v>
+        <v>87.146000000000001</v>
       </c>
       <c r="S21" s="3">
         <v>108.51</v>
@@ -2129,46 +2206,46 @@
         <v>125.21</v>
       </c>
       <c r="U21" s="3">
-        <v>148.343</v>
+        <v>148.34299999999999</v>
       </c>
       <c r="V21" s="3">
-        <v>175.308</v>
+        <v>175.30799999999999</v>
       </c>
       <c r="W21" s="3">
-        <v>160.896</v>
+        <v>160.89599999999999</v>
       </c>
       <c r="X21" s="3">
-        <v>168.449</v>
+        <v>168.44900000000001</v>
       </c>
       <c r="Y21" s="3">
-        <v>169.164</v>
+        <v>169.16399999999999</v>
       </c>
       <c r="Z21" s="3">
-        <v>179.927</v>
+        <v>179.92699999999999</v>
       </c>
       <c r="AA21" s="3">
-        <v>191.329</v>
+        <v>191.32900000000001</v>
       </c>
       <c r="AB21" s="3">
         <v>221.155</v>
       </c>
       <c r="AC21" s="3">
-        <v>233.152</v>
+        <v>233.15199999999999</v>
       </c>
       <c r="AD21" s="3">
         <v>246.779</v>
       </c>
       <c r="AE21" s="3">
-        <v>267.729</v>
+        <v>267.72899999999998</v>
       </c>
       <c r="AF21" s="3">
         <v>296.012</v>
       </c>
       <c r="AG21" s="3">
-        <v>339.433</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
+        <v>339.43299999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2212,13 +2289,13 @@
         <v>1201.231</v>
       </c>
       <c r="O22" s="3">
-        <v>1242.698</v>
+        <v>1242.6980000000001</v>
       </c>
       <c r="P22" s="3">
         <v>1377.433</v>
       </c>
       <c r="Q22" s="3">
-        <v>1357.447</v>
+        <v>1357.4469999999999</v>
       </c>
       <c r="R22" s="3">
         <v>1387.345</v>
@@ -2227,13 +2304,13 @@
         <v>1470.33</v>
       </c>
       <c r="T22" s="3">
-        <v>1635.815</v>
+        <v>1635.8150000000001</v>
       </c>
       <c r="U22" s="3">
-        <v>1845.687</v>
+        <v>1845.6869999999999</v>
       </c>
       <c r="V22" s="3">
-        <v>2170.606</v>
+        <v>2170.6060000000002</v>
       </c>
       <c r="W22" s="3">
         <v>2338.652</v>
@@ -2242,34 +2319,34 @@
         <v>2265.444</v>
       </c>
       <c r="Y22" s="3">
-        <v>2368.274</v>
+        <v>2368.2739999999999</v>
       </c>
       <c r="Z22" s="3">
         <v>2351.59</v>
       </c>
       <c r="AA22" s="3">
-        <v>2344.394</v>
+        <v>2344.3939999999998</v>
       </c>
       <c r="AB22" s="3">
-        <v>2406.302</v>
+        <v>2406.3020000000001</v>
       </c>
       <c r="AC22" s="3">
-        <v>2441.76</v>
+        <v>2441.7600000000002</v>
       </c>
       <c r="AD22" s="3">
-        <v>2411.459</v>
+        <v>2411.4589999999998</v>
       </c>
       <c r="AE22" s="3">
         <v>2412.194</v>
       </c>
       <c r="AF22" s="3">
-        <v>2463.454</v>
+        <v>2463.4540000000002</v>
       </c>
       <c r="AG22" s="3">
-        <v>2583.917</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
+        <v>2583.9169999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2310,46 +2387,46 @@
         <v>25</v>
       </c>
       <c r="N23" s="3">
-        <v>507.353</v>
+        <v>507.35300000000001</v>
       </c>
       <c r="O23" s="3">
-        <v>518.684</v>
+        <v>518.68399999999997</v>
       </c>
       <c r="P23" s="3">
-        <v>572.0069999999999</v>
+        <v>572.00699999999995</v>
       </c>
       <c r="Q23" s="3">
-        <v>602.885</v>
+        <v>602.88499999999999</v>
       </c>
       <c r="R23" s="3">
-        <v>648.167</v>
+        <v>648.16700000000003</v>
       </c>
       <c r="S23" s="3">
         <v>696.1</v>
       </c>
       <c r="T23" s="3">
-        <v>795.256</v>
+        <v>795.25599999999997</v>
       </c>
       <c r="U23" s="3">
-        <v>914.231</v>
+        <v>914.23099999999999</v>
       </c>
       <c r="V23" s="3">
-        <v>1125.063</v>
+        <v>1125.0630000000001</v>
       </c>
       <c r="W23" s="3">
-        <v>1172.917</v>
+        <v>1172.9169999999999</v>
       </c>
       <c r="X23" s="3">
-        <v>1190.132</v>
+        <v>1190.1320000000001</v>
       </c>
       <c r="Y23" s="3">
         <v>1260.903</v>
       </c>
       <c r="Z23" s="3">
-        <v>1272.264</v>
+        <v>1272.2639999999999</v>
       </c>
       <c r="AA23" s="3">
-        <v>1260.13</v>
+        <v>1260.1300000000001</v>
       </c>
       <c r="AB23" s="3">
         <v>1302.124</v>
@@ -2361,7 +2438,7 @@
         <v>1319.502</v>
       </c>
       <c r="AE23" s="3">
-        <v>1327.236</v>
+        <v>1327.2360000000001</v>
       </c>
       <c r="AF23" s="3">
         <v>1386.664</v>
@@ -2370,7 +2447,7 @@
         <v>1491.83</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2411,19 +2488,19 @@
         <v>25</v>
       </c>
       <c r="N24" s="3">
-        <v>458.354</v>
+        <v>458.35399999999998</v>
       </c>
       <c r="O24" s="3">
-        <v>488.538</v>
+        <v>488.53800000000001</v>
       </c>
       <c r="P24" s="3">
-        <v>542.776</v>
+        <v>542.77599999999995</v>
       </c>
       <c r="Q24" s="3">
-        <v>608.5410000000001</v>
+        <v>608.54100000000005</v>
       </c>
       <c r="R24" s="3">
-        <v>637.655</v>
+        <v>637.65499999999997</v>
       </c>
       <c r="S24" s="3">
         <v>674.25</v>
@@ -2432,19 +2509,19 @@
         <v>733.21</v>
       </c>
       <c r="U24" s="3">
-        <v>832.405</v>
+        <v>832.40499999999997</v>
       </c>
       <c r="V24" s="3">
         <v>1089.355</v>
       </c>
       <c r="W24" s="3">
-        <v>1091.948</v>
+        <v>1091.9480000000001</v>
       </c>
       <c r="X24" s="3">
-        <v>1142.025</v>
+        <v>1142.0250000000001</v>
       </c>
       <c r="Y24" s="3">
-        <v>1213.015</v>
+        <v>1213.0150000000001</v>
       </c>
       <c r="Z24" s="3">
         <v>1249.825</v>
@@ -2453,25 +2530,25 @@
         <v>1278.508</v>
       </c>
       <c r="AB24" s="3">
-        <v>1326.609</v>
+        <v>1326.6089999999999</v>
       </c>
       <c r="AC24" s="3">
-        <v>1356.474</v>
+        <v>1356.4739999999999</v>
       </c>
       <c r="AD24" s="3">
         <v>1370.569</v>
       </c>
       <c r="AE24" s="3">
-        <v>1417.333</v>
+        <v>1417.3330000000001</v>
       </c>
       <c r="AF24" s="3">
         <v>1542.298</v>
       </c>
       <c r="AG24" s="3">
-        <v>1661.023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
+        <v>1661.0229999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2512,16 +2589,16 @@
         <v>25</v>
       </c>
       <c r="N25" s="3">
-        <v>50.925</v>
+        <v>50.924999999999997</v>
       </c>
       <c r="O25" s="3">
-        <v>66.85599999999999</v>
+        <v>66.855999999999995</v>
       </c>
       <c r="P25" s="3">
         <v>79.125</v>
       </c>
       <c r="Q25" s="3">
-        <v>94.70399999999999</v>
+        <v>94.703999999999994</v>
       </c>
       <c r="R25" s="3">
         <v>112.81</v>
@@ -2533,37 +2610,37 @@
         <v>146.21</v>
       </c>
       <c r="U25" s="3">
-        <v>177.348</v>
+        <v>177.34800000000001</v>
       </c>
       <c r="V25" s="3">
-        <v>184.466</v>
+        <v>184.46600000000001</v>
       </c>
       <c r="W25" s="3">
-        <v>197.317</v>
+        <v>197.31700000000001</v>
       </c>
       <c r="X25" s="3">
         <v>204.4</v>
       </c>
       <c r="Y25" s="3">
-        <v>218.829</v>
+        <v>218.82900000000001</v>
       </c>
       <c r="Z25" s="3">
-        <v>234.063</v>
+        <v>234.06299999999999</v>
       </c>
       <c r="AA25" s="3">
         <v>254.251</v>
       </c>
       <c r="AB25" s="3">
-        <v>292.532</v>
+        <v>292.53199999999998</v>
       </c>
       <c r="AC25" s="3">
-        <v>316.265</v>
+        <v>316.26499999999999</v>
       </c>
       <c r="AD25" s="3">
-        <v>385.918</v>
+        <v>385.91800000000001</v>
       </c>
       <c r="AE25" s="3">
-        <v>452.905</v>
+        <v>452.90499999999997</v>
       </c>
       <c r="AF25" s="3">
         <v>464.89</v>
@@ -2572,7 +2649,7 @@
         <v>497.58</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2616,64 +2693,64 @@
         <v>158.404</v>
       </c>
       <c r="O26" s="3">
-        <v>153.849</v>
+        <v>153.84899999999999</v>
       </c>
       <c r="P26" s="3">
-        <v>157.735</v>
+        <v>157.73500000000001</v>
       </c>
       <c r="Q26" s="3">
-        <v>169.361</v>
+        <v>169.36099999999999</v>
       </c>
       <c r="R26" s="3">
         <v>193.928</v>
       </c>
       <c r="S26" s="3">
-        <v>215.427</v>
+        <v>215.42699999999999</v>
       </c>
       <c r="T26" s="3">
         <v>231.738</v>
       </c>
       <c r="U26" s="3">
-        <v>258.515</v>
+        <v>258.51499999999999</v>
       </c>
       <c r="V26" s="3">
-        <v>303.503</v>
+        <v>303.50299999999999</v>
       </c>
       <c r="W26" s="3">
-        <v>296.604</v>
+        <v>296.60399999999998</v>
       </c>
       <c r="X26" s="3">
-        <v>305.475</v>
+        <v>305.47500000000002</v>
       </c>
       <c r="Y26" s="3">
         <v>308.084</v>
       </c>
       <c r="Z26" s="3">
-        <v>313.688</v>
+        <v>313.68799999999999</v>
       </c>
       <c r="AA26" s="3">
         <v>308.548</v>
       </c>
       <c r="AB26" s="3">
-        <v>321.624</v>
+        <v>321.62400000000002</v>
       </c>
       <c r="AC26" s="3">
-        <v>327.771</v>
+        <v>327.77100000000002</v>
       </c>
       <c r="AD26" s="3">
         <v>339.935</v>
       </c>
       <c r="AE26" s="3">
-        <v>347.095</v>
+        <v>347.09500000000003</v>
       </c>
       <c r="AF26" s="3">
-        <v>374.369</v>
+        <v>374.36900000000003</v>
       </c>
       <c r="AG26" s="3">
-        <v>398.022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
+        <v>398.02199999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -2714,10 +2791,10 @@
         <v>25</v>
       </c>
       <c r="N27" s="3">
-        <v>10033.899</v>
+        <v>10033.898999999999</v>
       </c>
       <c r="O27" s="3">
-        <v>10728.122</v>
+        <v>10728.121999999999</v>
       </c>
       <c r="P27" s="3">
         <v>11687.53</v>
@@ -2726,16 +2803,16 @@
         <v>12329.662</v>
       </c>
       <c r="R27" s="3">
-        <v>13506.317</v>
+        <v>13506.316999999999</v>
       </c>
       <c r="S27" s="3">
         <v>14891.26</v>
       </c>
       <c r="T27" s="3">
-        <v>16382.513</v>
+        <v>16382.513000000001</v>
       </c>
       <c r="U27" s="3">
-        <v>18493.173</v>
+        <v>18493.172999999999</v>
       </c>
       <c r="V27" s="3">
         <v>21451.55</v>
@@ -2744,28 +2821,28 @@
         <v>21233.58</v>
       </c>
       <c r="X27" s="3">
-        <v>21499.189</v>
+        <v>21499.188999999998</v>
       </c>
       <c r="Y27" s="3">
-        <v>22235.121</v>
+        <v>22235.120999999999</v>
       </c>
       <c r="Z27" s="3">
-        <v>22170.523</v>
+        <v>22170.523000000001</v>
       </c>
       <c r="AA27" s="3">
-        <v>22848.219</v>
+        <v>22848.219000000001</v>
       </c>
       <c r="AB27" s="3">
         <v>23225.052</v>
       </c>
       <c r="AC27" s="3">
-        <v>23922.168</v>
+        <v>23922.168000000001</v>
       </c>
       <c r="AD27" s="3">
         <v>25024.677</v>
       </c>
       <c r="AE27" s="3">
-        <v>26396.959</v>
+        <v>26396.958999999999</v>
       </c>
       <c r="AF27" s="3">
         <v>28226.091</v>
@@ -2774,7 +2851,7 @@
         <v>29781.822</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2839,43 +2916,43 @@
         <v>25</v>
       </c>
       <c r="V28" s="3">
-        <v>398.374</v>
+        <v>398.37400000000002</v>
       </c>
       <c r="W28" s="3">
-        <v>298.805</v>
+        <v>298.80500000000001</v>
       </c>
       <c r="X28" s="3">
-        <v>381.204</v>
+        <v>381.20400000000001</v>
       </c>
       <c r="Y28" s="3">
         <v>370.512</v>
       </c>
       <c r="Z28" s="3">
-        <v>357.179</v>
+        <v>357.17899999999997</v>
       </c>
       <c r="AA28" s="3">
-        <v>427.595</v>
+        <v>427.59500000000003</v>
       </c>
       <c r="AB28" s="3">
-        <v>441.914</v>
+        <v>441.91399999999999</v>
       </c>
       <c r="AC28" s="3">
-        <v>435.635</v>
+        <v>435.63499999999999</v>
       </c>
       <c r="AD28" s="3">
-        <v>493.337</v>
+        <v>493.33699999999999</v>
       </c>
       <c r="AE28" s="3">
-        <v>470.932</v>
+        <v>470.93200000000002</v>
       </c>
       <c r="AF28" s="3">
-        <v>435.728</v>
+        <v>435.72800000000001</v>
       </c>
       <c r="AG28" s="3">
-        <v>510.773</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
+        <v>510.77300000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2940,13 +3017,13 @@
         <v>25</v>
       </c>
       <c r="V29" s="3">
-        <v>90.95399999999999</v>
+        <v>90.953999999999994</v>
       </c>
       <c r="W29" s="3">
-        <v>91.13200000000001</v>
+        <v>91.132000000000005</v>
       </c>
       <c r="X29" s="3">
-        <v>99.239</v>
+        <v>99.239000000000004</v>
       </c>
       <c r="Y29" s="3">
         <v>115.971</v>
@@ -2955,7 +3032,7 @@
         <v>113.886</v>
       </c>
       <c r="AA29" s="3">
-        <v>106.701</v>
+        <v>106.70099999999999</v>
       </c>
       <c r="AB29" s="3">
         <v>106.399</v>
@@ -2964,10 +3041,10 @@
         <v>111.027</v>
       </c>
       <c r="AD29" s="3">
-        <v>135.359</v>
+        <v>135.35900000000001</v>
       </c>
       <c r="AE29" s="3">
-        <v>140.949</v>
+        <v>140.94900000000001</v>
       </c>
       <c r="AF29" s="3">
         <v>145.613</v>
@@ -2976,7 +3053,7 @@
         <v>141.292</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -3041,43 +3118,43 @@
         <v>25</v>
       </c>
       <c r="V30" s="3">
-        <v>496.741</v>
+        <v>496.74099999999999</v>
       </c>
       <c r="W30" s="3">
-        <v>537.071</v>
+        <v>537.07100000000003</v>
       </c>
       <c r="X30" s="3">
         <v>555.173</v>
       </c>
       <c r="Y30" s="3">
-        <v>597.716</v>
+        <v>597.71600000000001</v>
       </c>
       <c r="Z30" s="3">
-        <v>635.773</v>
+        <v>635.77300000000002</v>
       </c>
       <c r="AA30" s="3">
-        <v>685.247</v>
+        <v>685.24699999999996</v>
       </c>
       <c r="AB30" s="3">
-        <v>717.347</v>
+        <v>717.34699999999998</v>
       </c>
       <c r="AC30" s="3">
-        <v>752.665</v>
+        <v>752.66499999999996</v>
       </c>
       <c r="AD30" s="3">
-        <v>788.181</v>
+        <v>788.18100000000004</v>
       </c>
       <c r="AE30" s="3">
-        <v>812.663</v>
+        <v>812.66300000000001</v>
       </c>
       <c r="AF30" s="3">
         <v>875.803</v>
       </c>
       <c r="AG30" s="3">
-        <v>907.614</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
+        <v>907.61400000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3142,13 +3219,13 @@
         <v>25</v>
       </c>
       <c r="V31" s="3">
-        <v>83.265</v>
+        <v>83.265000000000001</v>
       </c>
       <c r="W31" s="3">
-        <v>93.10599999999999</v>
+        <v>93.105999999999995</v>
       </c>
       <c r="X31" s="3">
-        <v>98.797</v>
+        <v>98.796999999999997</v>
       </c>
       <c r="Y31" s="3">
         <v>123.45</v>
@@ -3169,16 +3246,16 @@
         <v>211.821</v>
       </c>
       <c r="AE31" s="3">
-        <v>230.777</v>
+        <v>230.77699999999999</v>
       </c>
       <c r="AF31" s="3">
-        <v>233.085</v>
+        <v>233.08500000000001</v>
       </c>
       <c r="AG31" s="3">
-        <v>238.927</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
+        <v>238.92699999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -3243,7 +3320,7 @@
         <v>25</v>
       </c>
       <c r="V32" s="3">
-        <v>21.736</v>
+        <v>21.736000000000001</v>
       </c>
       <c r="W32" s="3">
         <v>25.794</v>
@@ -3252,34 +3329,34 @@
         <v>27.939</v>
       </c>
       <c r="Y32" s="3">
-        <v>32.474</v>
+        <v>32.473999999999997</v>
       </c>
       <c r="Z32" s="3">
         <v>36.113</v>
       </c>
       <c r="AA32" s="3">
-        <v>37.883</v>
+        <v>37.883000000000003</v>
       </c>
       <c r="AB32" s="3">
-        <v>40.581</v>
+        <v>40.581000000000003</v>
       </c>
       <c r="AC32" s="3">
-        <v>42.285</v>
+        <v>42.284999999999997</v>
       </c>
       <c r="AD32" s="3">
-        <v>43.732</v>
+        <v>43.731999999999999</v>
       </c>
       <c r="AE32" s="3">
         <v>47.71</v>
       </c>
       <c r="AF32" s="3">
-        <v>47.734</v>
+        <v>47.734000000000002</v>
       </c>
       <c r="AG32" s="3">
-        <v>46.478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34">
+        <v>46.478000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -3344,43 +3421,43 @@
         <v>25</v>
       </c>
       <c r="V33" s="3">
-        <v>263.991</v>
+        <v>263.99099999999999</v>
       </c>
       <c r="W33" s="3">
-        <v>263.479</v>
+        <v>263.47899999999998</v>
       </c>
       <c r="X33" s="3">
         <v>308.88</v>
       </c>
       <c r="Y33" s="3">
-        <v>383.938</v>
+        <v>383.93799999999999</v>
       </c>
       <c r="Z33" s="3">
-        <v>405.605</v>
+        <v>405.60500000000002</v>
       </c>
       <c r="AA33" s="3">
         <v>404.053</v>
       </c>
       <c r="AB33" s="3">
-        <v>390.993</v>
+        <v>390.99299999999999</v>
       </c>
       <c r="AC33" s="3">
-        <v>431.675</v>
+        <v>431.67500000000001</v>
       </c>
       <c r="AD33" s="3">
         <v>442.423</v>
       </c>
       <c r="AE33" s="3">
-        <v>517.679</v>
+        <v>517.67899999999997</v>
       </c>
       <c r="AF33" s="3">
-        <v>559.677</v>
+        <v>559.67700000000002</v>
       </c>
       <c r="AG33" s="3">
-        <v>577.092</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34">
+        <v>577.09199999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -3445,43 +3522,43 @@
         <v>25</v>
       </c>
       <c r="V34" s="3">
-        <v>489.311</v>
+        <v>489.31099999999998</v>
       </c>
       <c r="W34" s="3">
-        <v>496.018</v>
+        <v>496.01799999999997</v>
       </c>
       <c r="X34" s="3">
-        <v>523.213</v>
+        <v>523.21299999999997</v>
       </c>
       <c r="Y34" s="3">
-        <v>574.2619999999999</v>
+        <v>574.26199999999994</v>
       </c>
       <c r="Z34" s="3">
-        <v>610.808</v>
+        <v>610.80799999999999</v>
       </c>
       <c r="AA34" s="3">
         <v>629.149</v>
       </c>
       <c r="AB34" s="3">
-        <v>648.198</v>
+        <v>648.19799999999998</v>
       </c>
       <c r="AC34" s="3">
-        <v>699.123</v>
+        <v>699.12300000000005</v>
       </c>
       <c r="AD34" s="3">
-        <v>742.828</v>
+        <v>742.82799999999997</v>
       </c>
       <c r="AE34" s="3">
-        <v>797.251</v>
+        <v>797.25099999999998</v>
       </c>
       <c r="AF34" s="3">
-        <v>833.724</v>
+        <v>833.72400000000005</v>
       </c>
       <c r="AG34" s="3">
-        <v>900.211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
+        <v>900.21100000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -3546,10 +3623,10 @@
         <v>25</v>
       </c>
       <c r="V35" s="3">
-        <v>137.623</v>
+        <v>137.62299999999999</v>
       </c>
       <c r="W35" s="3">
-        <v>148.243</v>
+        <v>148.24299999999999</v>
       </c>
       <c r="X35" s="3">
         <v>162.501</v>
@@ -3558,31 +3635,31 @@
         <v>178.453</v>
       </c>
       <c r="Z35" s="3">
-        <v>195.574</v>
+        <v>195.57400000000001</v>
       </c>
       <c r="AA35" s="3">
-        <v>212.472</v>
+        <v>212.47200000000001</v>
       </c>
       <c r="AB35" s="3">
         <v>240.864</v>
       </c>
       <c r="AC35" s="3">
-        <v>258.549</v>
+        <v>258.54899999999998</v>
       </c>
       <c r="AD35" s="3">
-        <v>268.472</v>
+        <v>268.47199999999998</v>
       </c>
       <c r="AE35" s="3">
-        <v>283.367</v>
+        <v>283.36700000000002</v>
       </c>
       <c r="AF35" s="3">
-        <v>298.045</v>
+        <v>298.04500000000002</v>
       </c>
       <c r="AG35" s="3">
-        <v>309.376</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
+        <v>309.37599999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -3647,43 +3724,43 @@
         <v>25</v>
       </c>
       <c r="V36" s="3">
-        <v>34.289</v>
+        <v>34.289000000000001</v>
       </c>
       <c r="W36" s="3">
-        <v>36.98</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="X36" s="3">
-        <v>43.853</v>
+        <v>43.853000000000002</v>
       </c>
       <c r="Y36" s="3">
-        <v>55.239</v>
+        <v>55.238999999999997</v>
       </c>
       <c r="Z36" s="3">
-        <v>61.959</v>
+        <v>61.959000000000003</v>
       </c>
       <c r="AA36" s="3">
-        <v>78.465</v>
+        <v>78.465000000000003</v>
       </c>
       <c r="AB36" s="3">
-        <v>82.73699999999999</v>
+        <v>82.736999999999995</v>
       </c>
       <c r="AC36" s="3">
-        <v>89.309</v>
+        <v>89.308999999999997</v>
       </c>
       <c r="AD36" s="3">
-        <v>96.65900000000001</v>
+        <v>96.659000000000006</v>
       </c>
       <c r="AE36" s="3">
         <v>116.839</v>
       </c>
       <c r="AF36" s="3">
-        <v>129.05</v>
+        <v>129.05000000000001</v>
       </c>
       <c r="AG36" s="3">
-        <v>146.705</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34">
+        <v>146.70500000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3748,28 +3825,28 @@
         <v>25</v>
       </c>
       <c r="V37" s="3">
-        <v>50.239</v>
+        <v>50.238999999999997</v>
       </c>
       <c r="W37" s="3">
-        <v>54.394</v>
+        <v>54.393999999999998</v>
       </c>
       <c r="X37" s="3">
-        <v>62.298</v>
+        <v>62.298000000000002</v>
       </c>
       <c r="Y37" s="3">
-        <v>71.42400000000001</v>
+        <v>71.424000000000007</v>
       </c>
       <c r="Z37" s="3">
-        <v>76.79600000000001</v>
+        <v>76.796000000000006</v>
       </c>
       <c r="AA37" s="3">
-        <v>85.08199999999999</v>
+        <v>85.081999999999994</v>
       </c>
       <c r="AB37" s="3">
-        <v>95.93300000000001</v>
+        <v>95.933000000000007</v>
       </c>
       <c r="AC37" s="3">
-        <v>101.177</v>
+        <v>101.17700000000001</v>
       </c>
       <c r="AD37" s="3">
         <v>107.708</v>
@@ -3781,10 +3858,10 @@
         <v>124.441</v>
       </c>
       <c r="AG37" s="3">
-        <v>130.784</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34">
+        <v>130.78399999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -3852,10 +3929,10 @@
         <v>129.726</v>
       </c>
       <c r="W38" s="3">
-        <v>130.778</v>
+        <v>130.77799999999999</v>
       </c>
       <c r="X38" s="3">
-        <v>153.867</v>
+        <v>153.86699999999999</v>
       </c>
       <c r="Y38" s="3">
         <v>175.01</v>
@@ -3867,25 +3944,25 @@
         <v>216.024</v>
       </c>
       <c r="AB38" s="3">
-        <v>221.789</v>
+        <v>221.78899999999999</v>
       </c>
       <c r="AC38" s="3">
-        <v>214.484</v>
+        <v>214.48400000000001</v>
       </c>
       <c r="AD38" s="3">
-        <v>182.379</v>
+        <v>182.37899999999999</v>
       </c>
       <c r="AE38" s="3">
-        <v>196.229</v>
+        <v>196.22900000000001</v>
       </c>
       <c r="AF38" s="3">
         <v>237.273</v>
       </c>
       <c r="AG38" s="3">
-        <v>272.558</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34">
+        <v>272.55799999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -3950,10 +4027,10 @@
         <v>25</v>
       </c>
       <c r="V39" s="3">
-        <v>345.993</v>
+        <v>345.99299999999999</v>
       </c>
       <c r="W39" s="3">
-        <v>360.331</v>
+        <v>360.33100000000002</v>
       </c>
       <c r="X39" s="3">
         <v>356.459</v>
@@ -3962,31 +4039,31 @@
         <v>360.363</v>
       </c>
       <c r="Z39" s="3">
-        <v>384.196</v>
+        <v>384.19600000000003</v>
       </c>
       <c r="AA39" s="3">
-        <v>407.668</v>
+        <v>407.66800000000001</v>
       </c>
       <c r="AB39" s="3">
-        <v>415.481</v>
+        <v>415.48099999999999</v>
       </c>
       <c r="AC39" s="3">
-        <v>424.338</v>
+        <v>424.33800000000002</v>
       </c>
       <c r="AD39" s="3">
-        <v>441.547</v>
+        <v>441.54700000000003</v>
       </c>
       <c r="AE39" s="3">
-        <v>456.679</v>
+        <v>456.67899999999997</v>
       </c>
       <c r="AF39" s="3">
         <v>474.82</v>
       </c>
       <c r="AG39" s="3">
-        <v>490.441</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34">
+        <v>490.44099999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -4051,43 +4128,43 @@
         <v>25</v>
       </c>
       <c r="V40" s="3">
-        <v>48.592</v>
+        <v>48.591999999999999</v>
       </c>
       <c r="W40" s="3">
-        <v>53.277</v>
+        <v>53.277000000000001</v>
       </c>
       <c r="X40" s="3">
         <v>59.061</v>
       </c>
       <c r="Y40" s="3">
-        <v>68.791</v>
+        <v>68.790999999999997</v>
       </c>
       <c r="Z40" s="3">
-        <v>78.43300000000001</v>
+        <v>78.433000000000007</v>
       </c>
       <c r="AA40" s="3">
-        <v>77.458</v>
+        <v>77.457999999999998</v>
       </c>
       <c r="AB40" s="3">
-        <v>82.167</v>
+        <v>82.167000000000002</v>
       </c>
       <c r="AC40" s="3">
-        <v>91.629</v>
+        <v>91.629000000000005</v>
       </c>
       <c r="AD40" s="3">
         <v>94.39</v>
       </c>
       <c r="AE40" s="3">
-        <v>96.60599999999999</v>
+        <v>96.605999999999995</v>
       </c>
       <c r="AF40" s="3">
         <v>97.762</v>
       </c>
       <c r="AG40" s="3">
-        <v>99.929</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34">
+        <v>99.929000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -4152,10 +4229,10 @@
         <v>25</v>
       </c>
       <c r="V41" s="3">
-        <v>24.327</v>
+        <v>24.327000000000002</v>
       </c>
       <c r="W41" s="3">
-        <v>27.752</v>
+        <v>27.751999999999999</v>
       </c>
       <c r="X41" s="3">
         <v>28.052</v>
@@ -4170,25 +4247,25 @@
         <v>36.637</v>
       </c>
       <c r="AB41" s="3">
-        <v>37.717</v>
+        <v>37.716999999999999</v>
       </c>
       <c r="AC41" s="3">
-        <v>39.294</v>
+        <v>39.293999999999997</v>
       </c>
       <c r="AD41" s="3">
-        <v>41.739</v>
+        <v>41.738999999999997</v>
       </c>
       <c r="AE41" s="3">
         <v>45.07</v>
       </c>
       <c r="AF41" s="3">
-        <v>49.338</v>
+        <v>49.338000000000001</v>
       </c>
       <c r="AG41" s="3">
         <v>52.125</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -4256,7 +4333,7 @@
         <v>127.259</v>
       </c>
       <c r="W42" s="3">
-        <v>154.216</v>
+        <v>154.21600000000001</v>
       </c>
       <c r="X42" s="3">
         <v>204.845</v>
@@ -4265,31 +4342,31 @@
         <v>249.136</v>
       </c>
       <c r="Z42" s="3">
-        <v>275.813</v>
+        <v>275.81299999999999</v>
       </c>
       <c r="AA42" s="3">
-        <v>297.84</v>
+        <v>297.83999999999997</v>
       </c>
       <c r="AB42" s="3">
-        <v>312.343</v>
+        <v>312.34300000000002</v>
       </c>
       <c r="AC42" s="3">
-        <v>332.744</v>
+        <v>332.74400000000003</v>
       </c>
       <c r="AD42" s="3">
         <v>341.553</v>
       </c>
       <c r="AE42" s="3">
-        <v>355.515</v>
+        <v>355.51499999999999</v>
       </c>
       <c r="AF42" s="3">
-        <v>386.556</v>
+        <v>386.55599999999998</v>
       </c>
       <c r="AG42" s="3">
-        <v>419.183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34">
+        <v>419.18299999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -4357,10 +4434,10 @@
         <v>120.922</v>
       </c>
       <c r="W43" s="3">
-        <v>136.326</v>
+        <v>136.32599999999999</v>
       </c>
       <c r="X43" s="3">
-        <v>144.848</v>
+        <v>144.84800000000001</v>
       </c>
       <c r="Y43" s="3">
         <v>179.77</v>
@@ -4369,10 +4446,10 @@
         <v>189.244</v>
       </c>
       <c r="AA43" s="3">
-        <v>193.676</v>
+        <v>193.67599999999999</v>
       </c>
       <c r="AB43" s="3">
-        <v>217.539</v>
+        <v>217.53899999999999</v>
       </c>
       <c r="AC43" s="3">
         <v>233.137</v>
@@ -4387,10 +4464,10 @@
         <v>254.655</v>
       </c>
       <c r="AG43" s="3">
-        <v>258.019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34">
+        <v>258.01900000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -4455,22 +4532,22 @@
         <v>25</v>
       </c>
       <c r="V44" s="3">
-        <v>48.592</v>
+        <v>48.591999999999999</v>
       </c>
       <c r="W44" s="3">
-        <v>57.489</v>
+        <v>57.488999999999997</v>
       </c>
       <c r="X44" s="3">
-        <v>73.301</v>
+        <v>73.301000000000002</v>
       </c>
       <c r="Y44" s="3">
-        <v>84.121</v>
+        <v>84.120999999999995</v>
       </c>
       <c r="Z44" s="3">
         <v>91</v>
       </c>
       <c r="AA44" s="3">
-        <v>95.974</v>
+        <v>95.974000000000004</v>
       </c>
       <c r="AB44" s="3">
         <v>106.741</v>
@@ -4482,16 +4559,16 @@
         <v>124.904</v>
       </c>
       <c r="AE44" s="3">
-        <v>129.496</v>
+        <v>129.49600000000001</v>
       </c>
       <c r="AF44" s="3">
-        <v>143.698</v>
+        <v>143.69800000000001</v>
       </c>
       <c r="AG44" s="3">
-        <v>154.599</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34">
+        <v>154.59899999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -4565,16 +4642,16 @@
         <v>16.7</v>
       </c>
       <c r="Y45" s="3">
-        <v>18.733</v>
+        <v>18.733000000000001</v>
       </c>
       <c r="Z45" s="3">
-        <v>19.723</v>
+        <v>19.722999999999999</v>
       </c>
       <c r="AA45" s="3">
-        <v>20.393</v>
+        <v>20.393000000000001</v>
       </c>
       <c r="AB45" s="3">
-        <v>21.928</v>
+        <v>21.928000000000001</v>
       </c>
       <c r="AC45" s="3">
         <v>23.407</v>
@@ -4589,10 +4666,10 @@
         <v>28.855</v>
       </c>
       <c r="AG45" s="3">
-        <v>17.284</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34">
+        <v>17.283999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -4660,19 +4737,19 @@
         <v>19.2</v>
       </c>
       <c r="W46" s="3">
-        <v>19.342</v>
+        <v>19.341999999999999</v>
       </c>
       <c r="X46" s="3">
-        <v>19.537</v>
+        <v>19.536999999999999</v>
       </c>
       <c r="Y46" s="3">
         <v>20.13</v>
       </c>
       <c r="Z46" s="3">
-        <v>21.853</v>
+        <v>21.853000000000002</v>
       </c>
       <c r="AA46" s="3">
-        <v>22.423</v>
+        <v>22.422999999999998</v>
       </c>
       <c r="AB46" s="3">
         <v>21.692</v>
@@ -4687,13 +4764,13 @@
         <v>22.904</v>
       </c>
       <c r="AF46" s="3">
-        <v>23.935</v>
+        <v>23.934999999999999</v>
       </c>
       <c r="AG46" s="3">
-        <v>25.245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34">
+        <v>25.245000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4758,43 +4835,43 @@
         <v>25</v>
       </c>
       <c r="V47" s="3">
-        <v>2945.599</v>
+        <v>2945.5990000000002</v>
       </c>
       <c r="W47" s="3">
-        <v>2999.606</v>
+        <v>2999.6060000000002</v>
       </c>
       <c r="X47" s="3">
         <v>3319.768</v>
       </c>
       <c r="Y47" s="3">
-        <v>3690.371</v>
+        <v>3690.3710000000001</v>
       </c>
       <c r="Z47" s="3">
-        <v>3910.932</v>
+        <v>3910.9319999999998</v>
       </c>
       <c r="AA47" s="3">
-        <v>4179.611</v>
+        <v>4179.6109999999999</v>
       </c>
       <c r="AB47" s="3">
-        <v>4359.103</v>
+        <v>4359.1030000000001</v>
       </c>
       <c r="AC47" s="3">
-        <v>4611.021</v>
+        <v>4611.0209999999997</v>
       </c>
       <c r="AD47" s="3">
-        <v>4847.198</v>
+        <v>4847.1980000000003</v>
       </c>
       <c r="AE47" s="3">
-        <v>5105.974</v>
+        <v>5105.9740000000002</v>
       </c>
       <c r="AF47" s="3">
-        <v>5379.793</v>
+        <v>5379.7929999999997</v>
       </c>
       <c r="AG47" s="3">
-        <v>5698.635</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34">
+        <v>5698.6350000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -4823,49 +4900,49 @@
         <v>1896.84</v>
       </c>
       <c r="J48" s="3">
-        <v>2143.104</v>
+        <v>2143.1039999999998</v>
       </c>
       <c r="K48" s="3">
-        <v>2315.185</v>
+        <v>2315.1849999999999</v>
       </c>
       <c r="L48" s="3">
-        <v>2350.594</v>
+        <v>2350.5940000000001</v>
       </c>
       <c r="M48" s="3">
-        <v>3065.738</v>
+        <v>3065.7379999999998</v>
       </c>
       <c r="N48" s="3">
-        <v>4070.461</v>
+        <v>4070.4609999999998</v>
       </c>
       <c r="O48" s="3">
-        <v>4271.361</v>
+        <v>4271.3609999999999</v>
       </c>
       <c r="P48" s="3">
-        <v>4741.654</v>
+        <v>4741.6540000000005</v>
       </c>
       <c r="Q48" s="3">
-        <v>5062.066</v>
+        <v>5062.0659999999998</v>
       </c>
       <c r="R48" s="3">
         <v>5633.384</v>
       </c>
       <c r="S48" s="3">
-        <v>6174.851</v>
+        <v>6174.8509999999997</v>
       </c>
       <c r="T48" s="3">
-        <v>6488.827</v>
+        <v>6488.8270000000002</v>
       </c>
       <c r="U48" s="3">
-        <v>5333.901</v>
+        <v>5333.9009999999998</v>
       </c>
       <c r="V48" s="3">
-        <v>5544.016</v>
+        <v>5544.0159999999996</v>
       </c>
       <c r="W48" s="3">
-        <v>5134.506</v>
+        <v>5134.5060000000003</v>
       </c>
       <c r="X48" s="3">
-        <v>9629.416999999999</v>
+        <v>9629.4169999999995</v>
       </c>
       <c r="Y48" s="3">
         <v>11244.547</v>
@@ -4874,28 +4951,28 @@
         <v>11020.752</v>
       </c>
       <c r="AA48" s="3">
-        <v>13806.479</v>
+        <v>13806.478999999999</v>
       </c>
       <c r="AB48" s="3">
-        <v>18568.634</v>
+        <v>18568.633999999998</v>
       </c>
       <c r="AC48" s="3">
-        <v>18813.937</v>
+        <v>18813.937000000002</v>
       </c>
       <c r="AD48" s="3">
-        <v>19844.093</v>
+        <v>19844.093000000001</v>
       </c>
       <c r="AE48" s="3">
         <v>21472.17</v>
       </c>
       <c r="AF48" s="3">
-        <v>19183.955</v>
+        <v>19183.955000000002</v>
       </c>
       <c r="AG48" s="3">
-        <v>20957.31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34">
+        <v>20957.310000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -4921,19 +4998,19 @@
         <v>51</v>
       </c>
       <c r="I49" s="3">
-        <v>8.882999999999999</v>
+        <v>8.8829999999999991</v>
       </c>
       <c r="J49" s="3">
-        <v>12.563</v>
+        <v>12.563000000000001</v>
       </c>
       <c r="K49" s="3">
-        <v>19.208</v>
+        <v>19.207999999999998</v>
       </c>
       <c r="L49" s="3">
         <v>17.395</v>
       </c>
       <c r="M49" s="3">
-        <v>24.271</v>
+        <v>24.271000000000001</v>
       </c>
       <c r="N49" s="3">
         <v>25.584</v>
@@ -4945,13 +5022,13 @@
         <v>49.65</v>
       </c>
       <c r="Q49" s="3">
-        <v>70.423</v>
+        <v>70.423000000000002</v>
       </c>
       <c r="R49" s="3">
         <v>105.961</v>
       </c>
       <c r="S49" s="3">
-        <v>143.662</v>
+        <v>143.66200000000001</v>
       </c>
       <c r="T49" s="3">
         <v>224.39</v>
@@ -4960,43 +5037,43 @@
         <v>262.642</v>
       </c>
       <c r="V49" s="3">
-        <v>315.145</v>
+        <v>315.14499999999998</v>
       </c>
       <c r="W49" s="3">
-        <v>241.207</v>
+        <v>241.20699999999999</v>
       </c>
       <c r="X49" s="3">
         <v>196.36</v>
       </c>
       <c r="Y49" s="3">
-        <v>258.919</v>
+        <v>258.91899999999998</v>
       </c>
       <c r="Z49" s="3">
         <v>270.971</v>
       </c>
       <c r="AA49" s="3">
-        <v>345.606</v>
+        <v>345.60599999999999</v>
       </c>
       <c r="AB49" s="3">
-        <v>486.924</v>
+        <v>486.92399999999998</v>
       </c>
       <c r="AC49" s="3">
-        <v>481.655</v>
+        <v>481.65499999999997</v>
       </c>
       <c r="AD49" s="3">
-        <v>394.398</v>
+        <v>394.39800000000002</v>
       </c>
       <c r="AE49" s="3">
-        <v>483.074</v>
+        <v>483.07400000000001</v>
       </c>
       <c r="AF49" s="3">
-        <v>640.328</v>
+        <v>640.32799999999997</v>
       </c>
       <c r="AG49" s="3">
-        <v>776.051</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34">
+        <v>776.05100000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5022,13 +5099,13 @@
         <v>51</v>
       </c>
       <c r="I50" s="3">
-        <v>1447.342</v>
+        <v>1447.3420000000001</v>
       </c>
       <c r="J50" s="3">
         <v>1606.615</v>
       </c>
       <c r="K50" s="3">
-        <v>1602.458</v>
+        <v>1602.4580000000001</v>
       </c>
       <c r="L50" s="3">
         <v>1250.3</v>
@@ -5037,52 +5114,52 @@
         <v>1580.902</v>
       </c>
       <c r="N50" s="3">
-        <v>2235.226</v>
+        <v>2235.2260000000001</v>
       </c>
       <c r="O50" s="3">
-        <v>2945.467</v>
+        <v>2945.4670000000001</v>
       </c>
       <c r="P50" s="3">
-        <v>3285.658</v>
+        <v>3285.6579999999999</v>
       </c>
       <c r="Q50" s="3">
-        <v>4180.426</v>
+        <v>4180.4260000000004</v>
       </c>
       <c r="R50" s="3">
-        <v>4558.286</v>
+        <v>4558.2860000000001</v>
       </c>
       <c r="S50" s="3">
-        <v>4922.068</v>
+        <v>4922.0680000000002</v>
       </c>
       <c r="T50" s="3">
-        <v>5480.377</v>
+        <v>5480.3770000000004</v>
       </c>
       <c r="U50" s="3">
-        <v>6168.339</v>
+        <v>6168.3389999999999</v>
       </c>
       <c r="V50" s="3">
-        <v>6946.591</v>
+        <v>6946.5910000000003</v>
       </c>
       <c r="W50" s="3">
         <v>6269.366</v>
       </c>
       <c r="X50" s="3">
-        <v>8587.655000000001</v>
+        <v>8587.6550000000007</v>
       </c>
       <c r="Y50" s="3">
-        <v>10435.093</v>
+        <v>10435.093000000001</v>
       </c>
       <c r="Z50" s="3">
         <v>11238.32</v>
       </c>
       <c r="AA50" s="3">
-        <v>13380.333</v>
+        <v>13380.333000000001</v>
       </c>
       <c r="AB50" s="3">
-        <v>13287.656</v>
+        <v>13287.656000000001</v>
       </c>
       <c r="AC50" s="3">
-        <v>14697.238</v>
+        <v>14697.237999999999</v>
       </c>
       <c r="AD50" s="3">
         <v>15954.519</v>
@@ -5094,10 +5171,10 @@
         <v>19037.09</v>
       </c>
       <c r="AG50" s="3">
-        <v>20407.674</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34">
+        <v>20407.673999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -5129,19 +5206,19 @@
         <v>140.172</v>
       </c>
       <c r="K51" s="3">
-        <v>142.186</v>
+        <v>142.18600000000001</v>
       </c>
       <c r="L51" s="3">
-        <v>218.319</v>
+        <v>218.31899999999999</v>
       </c>
       <c r="M51" s="3">
         <v>435.05</v>
       </c>
       <c r="N51" s="3">
-        <v>293.622</v>
+        <v>293.62200000000001</v>
       </c>
       <c r="O51" s="3">
-        <v>499.369</v>
+        <v>499.36900000000003</v>
       </c>
       <c r="P51" s="3">
         <v>475.887</v>
@@ -5150,7 +5227,7 @@
         <v>500.447</v>
       </c>
       <c r="R51" s="3">
-        <v>679.172</v>
+        <v>679.17200000000003</v>
       </c>
       <c r="S51" s="3">
         <v>734.995</v>
@@ -5165,40 +5242,40 @@
         <v>1275</v>
       </c>
       <c r="W51" s="3">
-        <v>1321.408</v>
+        <v>1321.4079999999999</v>
       </c>
       <c r="X51" s="3">
-        <v>2499.635</v>
+        <v>2499.6350000000002</v>
       </c>
       <c r="Y51" s="3">
-        <v>2778.457</v>
+        <v>2778.4569999999999</v>
       </c>
       <c r="Z51" s="3">
-        <v>2940.208</v>
+        <v>2940.2080000000001</v>
       </c>
       <c r="AA51" s="3">
-        <v>3163.474</v>
+        <v>3163.4740000000002</v>
       </c>
       <c r="AB51" s="3">
         <v>3020.527</v>
       </c>
       <c r="AC51" s="3">
-        <v>4074.382</v>
+        <v>4074.3820000000001</v>
       </c>
       <c r="AD51" s="3">
-        <v>4507.709</v>
+        <v>4507.7089999999998</v>
       </c>
       <c r="AE51" s="3">
-        <v>4788.583</v>
+        <v>4788.5829999999996</v>
       </c>
       <c r="AF51" s="3">
-        <v>4833.706</v>
+        <v>4833.7060000000001</v>
       </c>
       <c r="AG51" s="3">
         <v>4768.884</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -5224,7 +5301,7 @@
         <v>51</v>
       </c>
       <c r="I52" s="3">
-        <v>31.885</v>
+        <v>31.885000000000002</v>
       </c>
       <c r="J52" s="3">
         <v>70.59</v>
@@ -5233,16 +5310,16 @@
         <v>82.31</v>
       </c>
       <c r="L52" s="3">
-        <v>79.32899999999999</v>
+        <v>79.328999999999994</v>
       </c>
       <c r="M52" s="3">
-        <v>77.66800000000001</v>
+        <v>77.668000000000006</v>
       </c>
       <c r="N52" s="3">
-        <v>80.21899999999999</v>
+        <v>80.218999999999994</v>
       </c>
       <c r="O52" s="3">
-        <v>121.543</v>
+        <v>121.54300000000001</v>
       </c>
       <c r="P52" s="3">
         <v>121.43</v>
@@ -5254,7 +5331,7 @@
         <v>191.636</v>
       </c>
       <c r="S52" s="3">
-        <v>159.212</v>
+        <v>159.21199999999999</v>
       </c>
       <c r="T52" s="3">
         <v>192.137</v>
@@ -5263,43 +5340,43 @@
         <v>354.935</v>
       </c>
       <c r="V52" s="3">
-        <v>380.006</v>
+        <v>380.00599999999997</v>
       </c>
       <c r="W52" s="3">
-        <v>430.804</v>
+        <v>430.80399999999997</v>
       </c>
       <c r="X52" s="3">
-        <v>563.466</v>
+        <v>563.46600000000001</v>
       </c>
       <c r="Y52" s="3">
-        <v>724.653</v>
+        <v>724.65300000000002</v>
       </c>
       <c r="Z52" s="3">
-        <v>808.444</v>
+        <v>808.44399999999996</v>
       </c>
       <c r="AA52" s="3">
         <v>919.96</v>
       </c>
       <c r="AB52" s="3">
-        <v>730.1079999999999</v>
+        <v>730.10799999999995</v>
       </c>
       <c r="AC52" s="3">
-        <v>772.821</v>
+        <v>772.82100000000003</v>
       </c>
       <c r="AD52" s="3">
-        <v>801.107</v>
+        <v>801.10699999999997</v>
       </c>
       <c r="AE52" s="3">
         <v>1033.557</v>
       </c>
       <c r="AF52" s="3">
-        <v>1110.234</v>
+        <v>1110.2339999999999</v>
       </c>
       <c r="AG52" s="3">
-        <v>1177.696</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34">
+        <v>1177.6959999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -5325,10 +5402,10 @@
         <v>51</v>
       </c>
       <c r="I53" s="3">
-        <v>228.177</v>
+        <v>228.17699999999999</v>
       </c>
       <c r="J53" s="3">
-        <v>297.812</v>
+        <v>297.81200000000001</v>
       </c>
       <c r="K53" s="3">
         <v>421.92</v>
@@ -5337,7 +5414,7 @@
         <v>288.589</v>
       </c>
       <c r="M53" s="3">
-        <v>408.969</v>
+        <v>408.96899999999999</v>
       </c>
       <c r="N53" s="3">
         <v>432.721</v>
@@ -5346,37 +5423,37 @@
         <v>583.505</v>
       </c>
       <c r="P53" s="3">
-        <v>665.333</v>
+        <v>665.33299999999997</v>
       </c>
       <c r="Q53" s="3">
-        <v>811.638</v>
+        <v>811.63800000000003</v>
       </c>
       <c r="R53" s="3">
-        <v>1101.185</v>
+        <v>1101.1849999999999</v>
       </c>
       <c r="S53" s="3">
-        <v>1257.044</v>
+        <v>1257.0440000000001</v>
       </c>
       <c r="T53" s="3">
-        <v>1776.459</v>
+        <v>1776.4590000000001</v>
       </c>
       <c r="U53" s="3">
-        <v>2585.899</v>
+        <v>2585.8989999999999</v>
       </c>
       <c r="V53" s="3">
-        <v>3115.036</v>
+        <v>3115.0360000000001</v>
       </c>
       <c r="W53" s="3">
-        <v>2108.706</v>
+        <v>2108.7060000000001</v>
       </c>
       <c r="X53" s="3">
-        <v>5782.301</v>
+        <v>5782.3010000000004</v>
       </c>
       <c r="Y53" s="3">
-        <v>6456.985</v>
+        <v>6456.9849999999997</v>
       </c>
       <c r="Z53" s="3">
-        <v>7224.642</v>
+        <v>7224.6419999999998</v>
       </c>
       <c r="AA53" s="3">
         <v>8013.62</v>
@@ -5385,13 +5462,13 @@
         <v>10354.052</v>
       </c>
       <c r="AC53" s="3">
-        <v>10947.336</v>
+        <v>10947.335999999999</v>
       </c>
       <c r="AD53" s="3">
-        <v>12043.674</v>
+        <v>12043.674000000001</v>
       </c>
       <c r="AE53" s="3">
-        <v>13141.486</v>
+        <v>13141.486000000001</v>
       </c>
       <c r="AF53" s="3">
         <v>16252.188</v>
@@ -5400,7 +5477,7 @@
         <v>18087.97</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -5426,19 +5503,19 @@
         <v>51</v>
       </c>
       <c r="I54" s="3">
-        <v>517.5549999999999</v>
+        <v>517.55499999999995</v>
       </c>
       <c r="J54" s="3">
-        <v>649.1420000000001</v>
+        <v>649.14200000000005</v>
       </c>
       <c r="K54" s="3">
-        <v>730.9880000000001</v>
+        <v>730.98800000000006</v>
       </c>
       <c r="L54" s="3">
-        <v>941.076</v>
+        <v>941.07600000000002</v>
       </c>
       <c r="M54" s="3">
-        <v>1883.872</v>
+        <v>1883.8720000000001</v>
       </c>
       <c r="N54" s="3">
         <v>2001.81</v>
@@ -5450,28 +5527,28 @@
         <v>2486.953</v>
       </c>
       <c r="Q54" s="3">
-        <v>2965.441</v>
+        <v>2965.4409999999998</v>
       </c>
       <c r="R54" s="3">
-        <v>3382.331</v>
+        <v>3382.3310000000001</v>
       </c>
       <c r="S54" s="3">
-        <v>3926.734</v>
+        <v>3926.7339999999999</v>
       </c>
       <c r="T54" s="3">
-        <v>5140.513</v>
+        <v>5140.5129999999999</v>
       </c>
       <c r="U54" s="3">
-        <v>6709.622</v>
+        <v>6709.6220000000003</v>
       </c>
       <c r="V54" s="3">
-        <v>8144.709</v>
+        <v>8144.7089999999998</v>
       </c>
       <c r="W54" s="3">
-        <v>7949.465</v>
+        <v>7949.4650000000001</v>
       </c>
       <c r="X54" s="3">
-        <v>10837.326</v>
+        <v>10837.325999999999</v>
       </c>
       <c r="Y54" s="3">
         <v>13203.57</v>
@@ -5483,25 +5560,25 @@
         <v>16351.242</v>
       </c>
       <c r="AB54" s="3">
-        <v>18868.638</v>
+        <v>18868.637999999999</v>
       </c>
       <c r="AC54" s="3">
-        <v>21699.078</v>
+        <v>21699.078000000001</v>
       </c>
       <c r="AD54" s="3">
-        <v>24626.022</v>
+        <v>24626.022000000001</v>
       </c>
       <c r="AE54" s="3">
         <v>27342.302</v>
       </c>
       <c r="AF54" s="3">
-        <v>30106.723</v>
+        <v>30106.723000000002</v>
       </c>
       <c r="AG54" s="3">
         <v>32127.21</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -5527,34 +5604,34 @@
         <v>51</v>
       </c>
       <c r="I55" s="3">
-        <v>188.766</v>
+        <v>188.76599999999999</v>
       </c>
       <c r="J55" s="3">
         <v>241.88</v>
       </c>
       <c r="K55" s="3">
-        <v>307.931</v>
+        <v>307.93099999999998</v>
       </c>
       <c r="L55" s="3">
-        <v>359.276</v>
+        <v>359.27600000000001</v>
       </c>
       <c r="M55" s="3">
-        <v>522.926</v>
+        <v>522.92600000000004</v>
       </c>
       <c r="N55" s="3">
-        <v>723.9400000000001</v>
+        <v>723.94</v>
       </c>
       <c r="O55" s="3">
         <v>1006.251</v>
       </c>
       <c r="P55" s="3">
-        <v>1064.506</v>
+        <v>1064.5060000000001</v>
       </c>
       <c r="Q55" s="3">
-        <v>1390.188</v>
+        <v>1390.1880000000001</v>
       </c>
       <c r="R55" s="3">
-        <v>1715.469</v>
+        <v>1715.4690000000001</v>
       </c>
       <c r="S55" s="3">
         <v>1870.635</v>
@@ -5563,46 +5640,46 @@
         <v>2034.758</v>
       </c>
       <c r="U55" s="3">
-        <v>2539.258</v>
+        <v>2539.2579999999998</v>
       </c>
       <c r="V55" s="3">
-        <v>3271.593</v>
+        <v>3271.5929999999998</v>
       </c>
       <c r="W55" s="3">
-        <v>2853.224</v>
+        <v>2853.2240000000002</v>
       </c>
       <c r="X55" s="3">
-        <v>3511.472</v>
+        <v>3511.4720000000002</v>
       </c>
       <c r="Y55" s="3">
         <v>4478.223</v>
       </c>
       <c r="Z55" s="3">
-        <v>4763.819</v>
+        <v>4763.8190000000004</v>
       </c>
       <c r="AA55" s="3">
-        <v>5371.774</v>
+        <v>5371.7740000000003</v>
       </c>
       <c r="AB55" s="3">
-        <v>4392.648</v>
+        <v>4392.6480000000001</v>
       </c>
       <c r="AC55" s="3">
         <v>6438.28</v>
       </c>
       <c r="AD55" s="3">
-        <v>7395.449</v>
+        <v>7395.4489999999996</v>
       </c>
       <c r="AE55" s="3">
-        <v>8545.615</v>
+        <v>8545.6149999999998</v>
       </c>
       <c r="AF55" s="3">
-        <v>8023.738</v>
+        <v>8023.7380000000003</v>
       </c>
       <c r="AG55" s="3">
-        <v>8529.094999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34">
+        <v>8529.0949999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -5628,16 +5705,16 @@
         <v>51</v>
       </c>
       <c r="I56" s="3">
-        <v>50.702</v>
+        <v>50.701999999999998</v>
       </c>
       <c r="J56" s="3">
-        <v>55.019</v>
+        <v>55.018999999999998</v>
       </c>
       <c r="K56" s="3">
-        <v>62.995</v>
+        <v>62.994999999999997</v>
       </c>
       <c r="L56" s="3">
-        <v>67.61199999999999</v>
+        <v>67.611999999999995</v>
       </c>
       <c r="M56" s="3">
         <v>103.384</v>
@@ -5649,10 +5726,10 @@
         <v>166.65</v>
       </c>
       <c r="P56" s="3">
-        <v>192.527</v>
+        <v>192.52699999999999</v>
       </c>
       <c r="Q56" s="3">
-        <v>260.826</v>
+        <v>260.82600000000002</v>
       </c>
       <c r="R56" s="3">
         <v>309.99</v>
@@ -5661,19 +5738,19 @@
         <v>398.584</v>
       </c>
       <c r="T56" s="3">
-        <v>468.898</v>
+        <v>468.89800000000002</v>
       </c>
       <c r="U56" s="3">
-        <v>611.974</v>
+        <v>611.97400000000005</v>
       </c>
       <c r="V56" s="3">
-        <v>845.057</v>
+        <v>845.05700000000002</v>
       </c>
       <c r="W56" s="3">
-        <v>809.701</v>
+        <v>809.70100000000002</v>
       </c>
       <c r="X56" s="3">
-        <v>927.263</v>
+        <v>927.26300000000003</v>
       </c>
       <c r="Y56" s="3">
         <v>1025.204</v>
@@ -5688,7 +5765,7 @@
         <v>1063.528</v>
       </c>
       <c r="AC56" s="3">
-        <v>1123.88</v>
+        <v>1123.8800000000001</v>
       </c>
       <c r="AD56" s="3">
         <v>1194.797</v>
@@ -5697,13 +5774,13 @@
         <v>1542.441</v>
       </c>
       <c r="AF56" s="3">
-        <v>1974.208</v>
+        <v>1974.2080000000001</v>
       </c>
       <c r="AG56" s="3">
         <v>2529.759</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -5729,82 +5806,82 @@
         <v>51</v>
       </c>
       <c r="I57" s="3">
-        <v>144.507</v>
+        <v>144.50700000000001</v>
       </c>
       <c r="J57" s="3">
-        <v>191.688</v>
+        <v>191.68799999999999</v>
       </c>
       <c r="K57" s="3">
-        <v>249.112</v>
+        <v>249.11199999999999</v>
       </c>
       <c r="L57" s="3">
-        <v>281.735</v>
+        <v>281.73500000000001</v>
       </c>
       <c r="M57" s="3">
         <v>452.392</v>
       </c>
       <c r="N57" s="3">
-        <v>773.3150000000001</v>
+        <v>773.31500000000005</v>
       </c>
       <c r="O57" s="3">
-        <v>920.588</v>
+        <v>920.58799999999997</v>
       </c>
       <c r="P57" s="3">
         <v>1140.904</v>
       </c>
       <c r="Q57" s="3">
-        <v>1507.545</v>
+        <v>1507.5450000000001</v>
       </c>
       <c r="R57" s="3">
-        <v>2001.733</v>
+        <v>2001.7329999999999</v>
       </c>
       <c r="S57" s="3">
-        <v>2732.151</v>
+        <v>2732.1509999999998</v>
       </c>
       <c r="T57" s="3">
         <v>3287.81</v>
       </c>
       <c r="U57" s="3">
-        <v>4069.853</v>
+        <v>4069.8530000000001</v>
       </c>
       <c r="V57" s="3">
-        <v>4354.423</v>
+        <v>4354.4229999999998</v>
       </c>
       <c r="W57" s="3">
-        <v>4517.528</v>
+        <v>4517.5280000000002</v>
       </c>
       <c r="X57" s="3">
-        <v>4692.691</v>
+        <v>4692.6909999999998</v>
       </c>
       <c r="Y57" s="3">
-        <v>5089.187</v>
+        <v>5089.1869999999999</v>
       </c>
       <c r="Z57" s="3">
-        <v>5528.538</v>
+        <v>5528.5379999999996</v>
       </c>
       <c r="AA57" s="3">
-        <v>5770.557</v>
+        <v>5770.5569999999998</v>
       </c>
       <c r="AB57" s="3">
-        <v>6834.334</v>
+        <v>6834.3339999999998</v>
       </c>
       <c r="AC57" s="3">
-        <v>7362.467</v>
+        <v>7362.4669999999996</v>
       </c>
       <c r="AD57" s="3">
-        <v>7612.818</v>
+        <v>7612.8180000000002</v>
       </c>
       <c r="AE57" s="3">
-        <v>8078.733</v>
+        <v>8078.7330000000002</v>
       </c>
       <c r="AF57" s="3">
-        <v>9058.246999999999</v>
+        <v>9058.2469999999994</v>
       </c>
       <c r="AG57" s="3">
         <v>10565.546</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -5833,19 +5910,19 @@
         <v>237.917</v>
       </c>
       <c r="J58" s="3">
-        <v>515.155</v>
+        <v>515.15499999999997</v>
       </c>
       <c r="K58" s="3">
-        <v>530.602</v>
+        <v>530.60199999999998</v>
       </c>
       <c r="L58" s="3">
-        <v>676.513</v>
+        <v>676.51300000000003</v>
       </c>
       <c r="M58" s="3">
         <v>1009.155</v>
       </c>
       <c r="N58" s="3">
-        <v>843.494</v>
+        <v>843.49400000000003</v>
       </c>
       <c r="O58" s="3">
         <v>862.529</v>
@@ -5860,52 +5937,52 @@
         <v>1516.932</v>
       </c>
       <c r="S58" s="3">
-        <v>1726.815</v>
+        <v>1726.8150000000001</v>
       </c>
       <c r="T58" s="3">
-        <v>2224.773</v>
+        <v>2224.7730000000001</v>
       </c>
       <c r="U58" s="3">
         <v>3223.34</v>
       </c>
       <c r="V58" s="3">
-        <v>3781.226</v>
+        <v>3781.2260000000001</v>
       </c>
       <c r="W58" s="3">
-        <v>3850.879</v>
+        <v>3850.8789999999999</v>
       </c>
       <c r="X58" s="3">
-        <v>3475.642</v>
+        <v>3475.6419999999998</v>
       </c>
       <c r="Y58" s="3">
-        <v>3062.041</v>
+        <v>3062.0410000000002</v>
       </c>
       <c r="Z58" s="3">
         <v>3089.81</v>
       </c>
       <c r="AA58" s="3">
-        <v>3374.043</v>
+        <v>3374.0430000000001</v>
       </c>
       <c r="AB58" s="3">
-        <v>4275.841</v>
+        <v>4275.8410000000003</v>
       </c>
       <c r="AC58" s="3">
-        <v>4069.859</v>
+        <v>4069.8589999999999</v>
       </c>
       <c r="AD58" s="3">
-        <v>4272.418</v>
+        <v>4272.4179999999997</v>
       </c>
       <c r="AE58" s="3">
-        <v>4609.017</v>
+        <v>4609.0169999999998</v>
       </c>
       <c r="AF58" s="3">
-        <v>5307.093</v>
+        <v>5307.0929999999998</v>
       </c>
       <c r="AG58" s="3">
         <v>5953.97</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -5931,67 +6008,67 @@
         <v>51</v>
       </c>
       <c r="I59" s="3">
-        <v>44.822</v>
+        <v>44.822000000000003</v>
       </c>
       <c r="J59" s="3">
-        <v>85.288</v>
+        <v>85.287999999999997</v>
       </c>
       <c r="K59" s="3">
-        <v>94.589</v>
+        <v>94.588999999999999</v>
       </c>
       <c r="L59" s="3">
         <v>118.91</v>
       </c>
       <c r="M59" s="3">
-        <v>273.364</v>
+        <v>273.36399999999998</v>
       </c>
       <c r="N59" s="3">
-        <v>416.193</v>
+        <v>416.19299999999998</v>
       </c>
       <c r="O59" s="3">
-        <v>482.104</v>
+        <v>482.10399999999998</v>
       </c>
       <c r="P59" s="3">
-        <v>597.183</v>
+        <v>597.18299999999999</v>
       </c>
       <c r="Q59" s="3">
-        <v>707.7910000000001</v>
+        <v>707.79100000000005</v>
       </c>
       <c r="R59" s="3">
-        <v>756.7670000000001</v>
+        <v>756.76700000000005</v>
       </c>
       <c r="S59" s="3">
-        <v>928.897</v>
+        <v>928.89700000000005</v>
       </c>
       <c r="T59" s="3">
-        <v>1187.869</v>
+        <v>1187.8689999999999</v>
       </c>
       <c r="U59" s="3">
-        <v>1926.745</v>
+        <v>1926.7449999999999</v>
       </c>
       <c r="V59" s="3">
-        <v>3122.292</v>
+        <v>3122.2919999999999</v>
       </c>
       <c r="W59" s="3">
-        <v>3204.484</v>
+        <v>3204.4839999999999</v>
       </c>
       <c r="X59" s="3">
-        <v>8812.726000000001</v>
+        <v>8812.7260000000006</v>
       </c>
       <c r="Y59" s="3">
-        <v>10174.994</v>
+        <v>10174.994000000001</v>
       </c>
       <c r="Z59" s="3">
         <v>10604.16</v>
       </c>
       <c r="AA59" s="3">
-        <v>11211.333</v>
+        <v>11211.333000000001</v>
       </c>
       <c r="AB59" s="3">
         <v>11831.474</v>
       </c>
       <c r="AC59" s="3">
-        <v>13832.655</v>
+        <v>13832.655000000001</v>
       </c>
       <c r="AD59" s="3">
         <v>14416.448</v>
@@ -6006,7 +6083,7 @@
         <v>15901.009</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -6032,13 +6109,13 @@
         <v>51</v>
       </c>
       <c r="I60" s="3">
-        <v>87.121</v>
+        <v>87.120999999999995</v>
       </c>
       <c r="J60" s="3">
-        <v>91.01900000000001</v>
+        <v>91.019000000000005</v>
       </c>
       <c r="K60" s="3">
-        <v>115.448</v>
+        <v>115.44799999999999</v>
       </c>
       <c r="L60" s="3">
         <v>136.446</v>
@@ -6047,16 +6124,16 @@
         <v>274.738</v>
       </c>
       <c r="N60" s="3">
-        <v>272.558</v>
+        <v>272.55799999999999</v>
       </c>
       <c r="O60" s="3">
         <v>389.024</v>
       </c>
       <c r="P60" s="3">
-        <v>508.939</v>
+        <v>508.93900000000002</v>
       </c>
       <c r="Q60" s="3">
-        <v>625.973</v>
+        <v>625.97299999999996</v>
       </c>
       <c r="R60" s="3">
         <v>1029.2</v>
@@ -6065,7 +6142,7 @@
         <v>1213.297</v>
       </c>
       <c r="T60" s="3">
-        <v>1385.074</v>
+        <v>1385.0740000000001</v>
       </c>
       <c r="U60" s="3">
         <v>1134.075</v>
@@ -6077,19 +6154,19 @@
         <v>1193.03</v>
       </c>
       <c r="X60" s="3">
-        <v>1683.312</v>
+        <v>1683.3119999999999</v>
       </c>
       <c r="Y60" s="3">
         <v>1800.538</v>
       </c>
       <c r="Z60" s="3">
-        <v>1983.388</v>
+        <v>1983.3879999999999</v>
       </c>
       <c r="AA60" s="3">
-        <v>2259.778</v>
+        <v>2259.7779999999998</v>
       </c>
       <c r="AB60" s="3">
-        <v>2713.736</v>
+        <v>2713.7359999999999</v>
       </c>
       <c r="AC60" s="3">
         <v>2946.451</v>
@@ -6098,16 +6175,16 @@
         <v>3367.873</v>
       </c>
       <c r="AE60" s="3">
-        <v>3508.075</v>
+        <v>3508.0749999999998</v>
       </c>
       <c r="AF60" s="3">
-        <v>3947.409</v>
+        <v>3947.4090000000001</v>
       </c>
       <c r="AG60" s="3">
         <v>4570.67</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -6136,79 +6213,79 @@
         <v>45.78</v>
       </c>
       <c r="J61" s="3">
-        <v>62.612</v>
+        <v>62.612000000000002</v>
       </c>
       <c r="K61" s="3">
         <v>79.747</v>
       </c>
       <c r="L61" s="3">
-        <v>97.996</v>
+        <v>97.995999999999995</v>
       </c>
       <c r="M61" s="3">
-        <v>150.735</v>
+        <v>150.73500000000001</v>
       </c>
       <c r="N61" s="3">
-        <v>185.956</v>
+        <v>185.95599999999999</v>
       </c>
       <c r="O61" s="3">
-        <v>267.458</v>
+        <v>267.45800000000003</v>
       </c>
       <c r="P61" s="3">
-        <v>284.445</v>
+        <v>284.44499999999999</v>
       </c>
       <c r="Q61" s="3">
         <v>372.59</v>
       </c>
       <c r="R61" s="3">
-        <v>502.019</v>
+        <v>502.01900000000001</v>
       </c>
       <c r="S61" s="3">
-        <v>545.9829999999999</v>
+        <v>545.98299999999995</v>
       </c>
       <c r="T61" s="3">
-        <v>708.297</v>
+        <v>708.29700000000003</v>
       </c>
       <c r="U61" s="3">
-        <v>945.974</v>
+        <v>945.97400000000005</v>
       </c>
       <c r="V61" s="3">
         <v>1082.229</v>
       </c>
       <c r="W61" s="3">
-        <v>954.182</v>
+        <v>954.18200000000002</v>
       </c>
       <c r="X61" s="3">
-        <v>953.861</v>
+        <v>953.86099999999999</v>
       </c>
       <c r="Y61" s="3">
-        <v>823.9829999999999</v>
+        <v>823.98299999999995</v>
       </c>
       <c r="Z61" s="3">
         <v>932.71</v>
       </c>
       <c r="AA61" s="3">
-        <v>1147.571</v>
+        <v>1147.5709999999999</v>
       </c>
       <c r="AB61" s="3">
-        <v>1184.293</v>
+        <v>1184.2929999999999</v>
       </c>
       <c r="AC61" s="3">
-        <v>1696.416</v>
+        <v>1696.4159999999999</v>
       </c>
       <c r="AD61" s="3">
-        <v>1676.052</v>
+        <v>1676.0519999999999</v>
       </c>
       <c r="AE61" s="3">
-        <v>1958.466</v>
+        <v>1958.4659999999999</v>
       </c>
       <c r="AF61" s="3">
         <v>2526.444</v>
       </c>
       <c r="AG61" s="3">
-        <v>2994.656</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34">
+        <v>2994.6559999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -6240,25 +6317,25 @@
         <v>314.596</v>
       </c>
       <c r="K62" s="3">
-        <v>352.258</v>
+        <v>352.25799999999998</v>
       </c>
       <c r="L62" s="3">
         <v>313.642</v>
       </c>
       <c r="M62" s="3">
-        <v>382.874</v>
+        <v>382.87400000000002</v>
       </c>
       <c r="N62" s="3">
-        <v>571.144</v>
+        <v>571.14400000000001</v>
       </c>
       <c r="O62" s="3">
-        <v>671.135</v>
+        <v>671.13499999999999</v>
       </c>
       <c r="P62" s="3">
         <v>1269.704</v>
       </c>
       <c r="Q62" s="3">
-        <v>1379.262</v>
+        <v>1379.2619999999999</v>
       </c>
       <c r="R62" s="3">
         <v>1337.682</v>
@@ -6273,43 +6350,43 @@
         <v>2453.125</v>
       </c>
       <c r="V62" s="3">
-        <v>2642.008</v>
+        <v>2642.0079999999998</v>
       </c>
       <c r="W62" s="3">
         <v>2856.998</v>
       </c>
       <c r="X62" s="3">
-        <v>2748.202</v>
+        <v>2748.2020000000002</v>
       </c>
       <c r="Y62" s="3">
-        <v>3046.273</v>
+        <v>3046.2730000000001</v>
       </c>
       <c r="Z62" s="3">
-        <v>3431.208</v>
+        <v>3431.2080000000001</v>
       </c>
       <c r="AA62" s="3">
-        <v>3988.865</v>
+        <v>3988.8649999999998</v>
       </c>
       <c r="AB62" s="3">
-        <v>4095.885</v>
+        <v>4095.8850000000002</v>
       </c>
       <c r="AC62" s="3">
-        <v>4621.087</v>
+        <v>4621.0870000000004</v>
       </c>
       <c r="AD62" s="3">
-        <v>5010.739</v>
+        <v>5010.7389999999996</v>
       </c>
       <c r="AE62" s="3">
-        <v>6003.882</v>
+        <v>6003.8819999999996</v>
       </c>
       <c r="AF62" s="3">
         <v>6456.866</v>
       </c>
       <c r="AG62" s="3">
-        <v>7094.734</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34">
+        <v>7094.7340000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -6335,43 +6412,43 @@
         <v>51</v>
       </c>
       <c r="I63" s="3">
-        <v>330.737</v>
+        <v>330.73700000000002</v>
       </c>
       <c r="J63" s="3">
-        <v>447.868</v>
+        <v>447.86799999999999</v>
       </c>
       <c r="K63" s="3">
-        <v>562.014</v>
+        <v>562.01400000000001</v>
       </c>
       <c r="L63" s="3">
-        <v>561.872</v>
+        <v>561.87199999999996</v>
       </c>
       <c r="M63" s="3">
-        <v>642.633</v>
+        <v>642.63300000000004</v>
       </c>
       <c r="N63" s="3">
         <v>826.447</v>
       </c>
       <c r="O63" s="3">
-        <v>964.8049999999999</v>
+        <v>964.80499999999995</v>
       </c>
       <c r="P63" s="3">
-        <v>1231.072</v>
+        <v>1231.0719999999999</v>
       </c>
       <c r="Q63" s="3">
         <v>1575.885</v>
       </c>
       <c r="R63" s="3">
-        <v>1734.911</v>
+        <v>1734.9110000000001</v>
       </c>
       <c r="S63" s="3">
         <v>2109.654</v>
       </c>
       <c r="T63" s="3">
-        <v>2632.043</v>
+        <v>2632.0430000000001</v>
       </c>
       <c r="U63" s="3">
-        <v>3058.025</v>
+        <v>3058.0250000000001</v>
       </c>
       <c r="V63" s="3">
         <v>3523.348</v>
@@ -6380,37 +6457,37 @@
         <v>4250.415</v>
       </c>
       <c r="X63" s="3">
-        <v>4891.243</v>
+        <v>4891.2430000000004</v>
       </c>
       <c r="Y63" s="3">
-        <v>5228.575</v>
+        <v>5228.5749999999998</v>
       </c>
       <c r="Z63" s="3">
-        <v>5838.001</v>
+        <v>5838.0010000000002</v>
       </c>
       <c r="AA63" s="3">
         <v>6082.384</v>
       </c>
       <c r="AB63" s="3">
-        <v>6026.633</v>
+        <v>6026.6329999999998</v>
       </c>
       <c r="AC63" s="3">
-        <v>6792.121</v>
+        <v>6792.1210000000001</v>
       </c>
       <c r="AD63" s="3">
-        <v>7066.478</v>
+        <v>7066.4780000000001</v>
       </c>
       <c r="AE63" s="3">
-        <v>7482.448</v>
+        <v>7482.4480000000003</v>
       </c>
       <c r="AF63" s="3">
-        <v>8236.145</v>
+        <v>8236.1450000000004</v>
       </c>
       <c r="AG63" s="3">
-        <v>9341.349</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34">
+        <v>9341.3490000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -6436,82 +6513,82 @@
         <v>51</v>
       </c>
       <c r="I64" s="3">
-        <v>210.424</v>
+        <v>210.42400000000001</v>
       </c>
       <c r="J64" s="3">
-        <v>214.534</v>
+        <v>214.53399999999999</v>
       </c>
       <c r="K64" s="3">
-        <v>270.647</v>
+        <v>270.64699999999999</v>
       </c>
       <c r="L64" s="3">
-        <v>305.293</v>
+        <v>305.29300000000001</v>
       </c>
       <c r="M64" s="3">
-        <v>292.325</v>
+        <v>292.32499999999999</v>
       </c>
       <c r="N64" s="3">
-        <v>349.765</v>
+        <v>349.76499999999999</v>
       </c>
       <c r="O64" s="3">
-        <v>443.046</v>
+        <v>443.04599999999999</v>
       </c>
       <c r="P64" s="3">
         <v>754.904</v>
       </c>
       <c r="Q64" s="3">
-        <v>935.651</v>
+        <v>935.65099999999995</v>
       </c>
       <c r="R64" s="3">
-        <v>1195.488</v>
+        <v>1195.4880000000001</v>
       </c>
       <c r="S64" s="3">
-        <v>1258.195</v>
+        <v>1258.1949999999999</v>
       </c>
       <c r="T64" s="3">
-        <v>1493.387</v>
+        <v>1493.3869999999999</v>
       </c>
       <c r="U64" s="3">
         <v>1956.13</v>
       </c>
       <c r="V64" s="3">
-        <v>2349.879</v>
+        <v>2349.8789999999999</v>
       </c>
       <c r="W64" s="3">
-        <v>2671.449</v>
+        <v>2671.4490000000001</v>
       </c>
       <c r="X64" s="3">
-        <v>2998.173</v>
+        <v>2998.1729999999998</v>
       </c>
       <c r="Y64" s="3">
-        <v>3314.365</v>
+        <v>3314.3649999999998</v>
       </c>
       <c r="Z64" s="3">
-        <v>3830.811</v>
+        <v>3830.8110000000001</v>
       </c>
       <c r="AA64" s="3">
-        <v>4155.728</v>
+        <v>4155.7280000000001</v>
       </c>
       <c r="AB64" s="3">
-        <v>4394.745</v>
+        <v>4394.7449999999999</v>
       </c>
       <c r="AC64" s="3">
-        <v>4855.582</v>
+        <v>4855.5820000000003</v>
       </c>
       <c r="AD64" s="3">
-        <v>5479.292</v>
+        <v>5479.2920000000004</v>
       </c>
       <c r="AE64" s="3">
-        <v>6562.992</v>
+        <v>6562.9920000000002</v>
       </c>
       <c r="AF64" s="3">
-        <v>7117.726</v>
+        <v>7117.7259999999997</v>
       </c>
       <c r="AG64" s="3">
         <v>8610.527</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -6537,19 +6614,19 @@
         <v>51</v>
       </c>
       <c r="I65" s="3">
-        <v>33.547</v>
+        <v>33.546999999999997</v>
       </c>
       <c r="J65" s="3">
         <v>34.1</v>
       </c>
       <c r="K65" s="3">
-        <v>35.923</v>
+        <v>35.923000000000002</v>
       </c>
       <c r="L65" s="3">
-        <v>44.379</v>
+        <v>44.378999999999998</v>
       </c>
       <c r="M65" s="3">
-        <v>56.911</v>
+        <v>56.911000000000001</v>
       </c>
       <c r="N65" s="3">
         <v>101.059</v>
@@ -6558,19 +6635,19 @@
         <v>170.77</v>
       </c>
       <c r="P65" s="3">
-        <v>125.668</v>
+        <v>125.66800000000001</v>
       </c>
       <c r="Q65" s="3">
-        <v>165.365</v>
+        <v>165.36500000000001</v>
       </c>
       <c r="R65" s="3">
         <v>221.393</v>
       </c>
       <c r="S65" s="3">
-        <v>304.652</v>
+        <v>304.65199999999999</v>
       </c>
       <c r="T65" s="3">
-        <v>415.103</v>
+        <v>415.10300000000001</v>
       </c>
       <c r="U65" s="3">
         <v>630.505</v>
@@ -6582,37 +6659,37 @@
         <v>427.17</v>
       </c>
       <c r="X65" s="3">
-        <v>504.853</v>
+        <v>504.85300000000001</v>
       </c>
       <c r="Y65" s="3">
         <v>570.649</v>
       </c>
       <c r="Z65" s="3">
-        <v>669.645</v>
+        <v>669.64499999999998</v>
       </c>
       <c r="AA65" s="3">
-        <v>736.941</v>
+        <v>736.94100000000003</v>
       </c>
       <c r="AB65" s="3">
-        <v>707.912</v>
+        <v>707.91200000000003</v>
       </c>
       <c r="AC65" s="3">
-        <v>937.819</v>
+        <v>937.81899999999996</v>
       </c>
       <c r="AD65" s="3">
         <v>1082.126</v>
       </c>
       <c r="AE65" s="3">
-        <v>907.389</v>
+        <v>907.38900000000001</v>
       </c>
       <c r="AF65" s="3">
-        <v>1101.522</v>
+        <v>1101.5219999999999</v>
       </c>
       <c r="AG65" s="3">
         <v>1565.84</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -6641,52 +6718,52 @@
         <v>17.802</v>
       </c>
       <c r="J66" s="3">
-        <v>21.565</v>
+        <v>21.565000000000001</v>
       </c>
       <c r="K66" s="3">
         <v>25.19</v>
       </c>
       <c r="L66" s="3">
-        <v>45.148</v>
+        <v>45.148000000000003</v>
       </c>
       <c r="M66" s="3">
-        <v>53.818</v>
+        <v>53.817999999999998</v>
       </c>
       <c r="N66" s="3">
-        <v>85.732</v>
+        <v>85.731999999999999</v>
       </c>
       <c r="O66" s="3">
-        <v>95.908</v>
+        <v>95.908000000000001</v>
       </c>
       <c r="P66" s="3">
-        <v>141.651</v>
+        <v>141.65100000000001</v>
       </c>
       <c r="Q66" s="3">
-        <v>179.236</v>
+        <v>179.23599999999999</v>
       </c>
       <c r="R66" s="3">
         <v>229.608</v>
       </c>
       <c r="S66" s="3">
-        <v>304.926</v>
+        <v>304.92599999999999</v>
       </c>
       <c r="T66" s="3">
-        <v>387.502</v>
+        <v>387.50200000000001</v>
       </c>
       <c r="U66" s="3">
-        <v>516.932</v>
+        <v>516.93200000000002</v>
       </c>
       <c r="V66" s="3">
-        <v>508.044</v>
+        <v>508.04399999999998</v>
       </c>
       <c r="W66" s="3">
-        <v>597.975</v>
+        <v>597.97500000000002</v>
       </c>
       <c r="X66" s="3">
-        <v>848.408</v>
+        <v>848.40800000000002</v>
       </c>
       <c r="Y66" s="3">
-        <v>975.723</v>
+        <v>975.72299999999996</v>
       </c>
       <c r="Z66" s="3">
         <v>1112.336</v>
@@ -6698,22 +6775,22 @@
         <v>1256.885</v>
       </c>
       <c r="AC66" s="3">
-        <v>1503.833</v>
+        <v>1503.8330000000001</v>
       </c>
       <c r="AD66" s="3">
         <v>1932.415</v>
       </c>
       <c r="AE66" s="3">
-        <v>2167.383</v>
+        <v>2167.3829999999998</v>
       </c>
       <c r="AF66" s="3">
-        <v>2317.957</v>
+        <v>2317.9569999999999</v>
       </c>
       <c r="AG66" s="3">
-        <v>2530.921</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34">
+        <v>2530.9209999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -6760,31 +6837,31 @@
         <v>22.724</v>
       </c>
       <c r="P67" s="3">
-        <v>34.765</v>
+        <v>34.765000000000001</v>
       </c>
       <c r="Q67" s="3">
-        <v>80.718</v>
+        <v>80.718000000000004</v>
       </c>
       <c r="R67" s="3">
-        <v>44.261</v>
+        <v>44.261000000000003</v>
       </c>
       <c r="S67" s="3">
-        <v>52.992</v>
+        <v>52.991999999999997</v>
       </c>
       <c r="T67" s="3">
-        <v>95.431</v>
+        <v>95.430999999999997</v>
       </c>
       <c r="U67" s="3">
         <v>131.136</v>
       </c>
       <c r="V67" s="3">
-        <v>136.573</v>
+        <v>136.57300000000001</v>
       </c>
       <c r="W67" s="3">
         <v>151.459</v>
       </c>
       <c r="X67" s="3">
-        <v>166.587</v>
+        <v>166.58699999999999</v>
       </c>
       <c r="Y67" s="3">
         <v>121.691</v>
@@ -6796,25 +6873,25 @@
         <v>173.27</v>
       </c>
       <c r="AB67" s="3">
-        <v>323.787</v>
+        <v>323.78699999999998</v>
       </c>
       <c r="AC67" s="3">
-        <v>383.196</v>
+        <v>383.19600000000003</v>
       </c>
       <c r="AD67" s="3">
-        <v>404.699</v>
+        <v>404.69900000000001</v>
       </c>
       <c r="AE67" s="3">
-        <v>416.169</v>
+        <v>416.16899999999998</v>
       </c>
       <c r="AF67" s="3">
         <v>492.34</v>
       </c>
       <c r="AG67" s="3">
-        <v>461.417</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34">
+        <v>461.41699999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -6840,13 +6917,13 @@
         <v>51</v>
       </c>
       <c r="I68" s="3">
-        <v>5887.736</v>
+        <v>5887.7359999999999</v>
       </c>
       <c r="J68" s="3">
-        <v>7195.322</v>
+        <v>7195.3220000000001</v>
       </c>
       <c r="K68" s="3">
-        <v>8000.711</v>
+        <v>8000.7110000000002</v>
       </c>
       <c r="L68" s="3">
         <v>8154.424</v>
@@ -6855,7 +6932,7 @@
         <v>11691.725</v>
       </c>
       <c r="N68" s="3">
-        <v>14401.604</v>
+        <v>14401.603999999999</v>
       </c>
       <c r="O68" s="3">
         <v>17205.98</v>
@@ -6864,34 +6941,34 @@
         <v>20151.983</v>
       </c>
       <c r="Q68" s="3">
-        <v>24170.074</v>
+        <v>24170.074000000001</v>
       </c>
       <c r="R68" s="3">
-        <v>28247.408</v>
+        <v>28247.407999999999</v>
       </c>
       <c r="S68" s="3">
-        <v>32372.789</v>
+        <v>32372.789000000001</v>
       </c>
       <c r="T68" s="3">
-        <v>38455.238</v>
+        <v>38455.237999999998</v>
       </c>
       <c r="U68" s="3">
-        <v>45628.665</v>
+        <v>45628.665000000001</v>
       </c>
       <c r="V68" s="3">
-        <v>53082.669</v>
+        <v>53082.669000000002</v>
       </c>
       <c r="W68" s="3">
-        <v>51793.956</v>
+        <v>51793.955999999998</v>
       </c>
       <c r="X68" s="3">
         <v>74310.591</v>
       </c>
       <c r="Y68" s="3">
-        <v>84813.66800000001</v>
+        <v>84813.668000000005</v>
       </c>
       <c r="Z68" s="3">
-        <v>90938.526</v>
+        <v>90938.525999999998</v>
       </c>
       <c r="AA68" s="3">
         <v>102741.876</v>
@@ -6906,16 +6983,16 @@
         <v>139083.128</v>
       </c>
       <c r="AE68" s="3">
-        <v>151940.982</v>
+        <v>151940.98199999999</v>
       </c>
       <c r="AF68" s="3">
         <v>163026.141</v>
       </c>
       <c r="AG68" s="3">
-        <v>178952.289</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34">
+        <v>178952.28899999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>53</v>
       </c>
@@ -6923,26 +7000,4976 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="B71" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="B71" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E81E65-9593-4F19-8771-03BBF32002DF}">
+  <dimension ref="A1:Y65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1063.9369999999999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1156.3230000000001</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1240.7280000000001</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1193.7080000000001</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1373.2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1464.5139999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1615.4659999999999</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1737.3019999999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1839.2470000000001</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1754.8920000000001</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1723.9949999999999</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1772.6420000000001</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1609.4639999999999</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1832.039</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1628.133</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1746.604</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1866.0219999999999</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1727.222</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1941.056</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1950.2909999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3">
+        <v>207.29499999999999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>228.124</v>
+      </c>
+      <c r="H3" s="3">
+        <v>230.691</v>
+      </c>
+      <c r="I3" s="3">
+        <v>245.36699999999999</v>
+      </c>
+      <c r="J3" s="3">
+        <v>270.65800000000002</v>
+      </c>
+      <c r="K3" s="3">
+        <v>319.94299999999998</v>
+      </c>
+      <c r="L3" s="3">
+        <v>355.173</v>
+      </c>
+      <c r="M3" s="3">
+        <v>429.00900000000001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>506.13099999999997</v>
+      </c>
+      <c r="O3" s="3">
+        <v>495.726</v>
+      </c>
+      <c r="P3" s="3">
+        <v>485.33199999999999</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>573.38599999999997</v>
+      </c>
+      <c r="R3" s="3">
+        <v>590.27599999999995</v>
+      </c>
+      <c r="S3" s="3">
+        <v>580.93600000000004</v>
+      </c>
+      <c r="T3" s="3">
+        <v>549.798</v>
+      </c>
+      <c r="U3" s="3">
+        <v>556.79700000000003</v>
+      </c>
+      <c r="V3" s="3">
+        <v>560.65800000000002</v>
+      </c>
+      <c r="W3" s="3">
+        <v>603.32500000000005</v>
+      </c>
+      <c r="X3" s="3">
+        <v>586.20299999999997</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>560.12400000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1098.7529999999999</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1192.567</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1302.2529999999999</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1369.674</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1458.67</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1754.932</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2009.289</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2437.6660000000002</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2810.26</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2598.2750000000001</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2760.9259999999999</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2863.4079999999999</v>
+      </c>
+      <c r="R4" s="3">
+        <v>2765.2139999999999</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2928.8240000000001</v>
+      </c>
+      <c r="T4" s="3">
+        <v>2993.096</v>
+      </c>
+      <c r="U4" s="3">
+        <v>3216.259</v>
+      </c>
+      <c r="V4" s="3">
+        <v>3575.4670000000001</v>
+      </c>
+      <c r="W4" s="3">
+        <v>3995.6889999999999</v>
+      </c>
+      <c r="X4" s="3">
+        <v>4321.45</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>4465.9579999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3">
+        <v>424.61399999999998</v>
+      </c>
+      <c r="G5" s="3">
+        <v>466.50799999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>467.447</v>
+      </c>
+      <c r="I5" s="3">
+        <v>511.17099999999999</v>
+      </c>
+      <c r="J5" s="3">
+        <v>675.69600000000003</v>
+      </c>
+      <c r="K5" s="3">
+        <v>724.33500000000004</v>
+      </c>
+      <c r="L5" s="3">
+        <v>779.43600000000004</v>
+      </c>
+      <c r="M5" s="3">
+        <v>720.11599999999999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>974.79200000000003</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1013.438</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1060.306</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1024.4860000000001</v>
+      </c>
+      <c r="R5" s="3">
+        <v>971.27099999999996</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1130.402</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1095.0899999999999</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1090.6179999999999</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1151.4469999999999</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1152.7940000000001</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1445.75</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1424.673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3">
+        <v>127.264</v>
+      </c>
+      <c r="G6" s="3">
+        <v>135.66900000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>140.13300000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>151.679</v>
+      </c>
+      <c r="J6" s="3">
+        <v>164.94900000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>202.28100000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>206.23400000000001</v>
+      </c>
+      <c r="M6" s="3">
+        <v>230.68899999999999</v>
+      </c>
+      <c r="N6" s="3">
+        <v>248.42099999999999</v>
+      </c>
+      <c r="O6" s="3">
+        <v>252.95400000000001</v>
+      </c>
+      <c r="P6" s="3">
+        <v>273.642</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>283.91699999999997</v>
+      </c>
+      <c r="R6" s="3">
+        <v>299.10199999999998</v>
+      </c>
+      <c r="S6" s="3">
+        <v>292.005</v>
+      </c>
+      <c r="T6" s="3">
+        <v>303.39600000000002</v>
+      </c>
+      <c r="U6" s="3">
+        <v>301.99299999999999</v>
+      </c>
+      <c r="V6" s="3">
+        <v>305.86500000000001</v>
+      </c>
+      <c r="W6" s="3">
+        <v>341.94799999999998</v>
+      </c>
+      <c r="X6" s="3">
+        <v>353.81799999999998</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>369.54899999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3">
+        <v>687.70799999999997</v>
+      </c>
+      <c r="G7" s="3">
+        <v>631.63900000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>630.14099999999996</v>
+      </c>
+      <c r="I7" s="3">
+        <v>641.21100000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>667.01099999999997</v>
+      </c>
+      <c r="K7" s="3">
+        <v>781.47799999999995</v>
+      </c>
+      <c r="L7" s="3">
+        <v>867.91700000000003</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1091.739</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1381.24</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1320.364</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1115.2429999999999</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1076.375</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1044.326</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1045.836</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1120.316</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1119.566</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1169.104</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1259.376</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1340.8340000000001</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1483.145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1084.5440000000001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1267.7360000000001</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1442.9090000000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1619.8009999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1903.6369999999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2103.7179999999998</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2420.3200000000002</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2769.5909999999999</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3364.576</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3189.57</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3314.27</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>3419.902</v>
+      </c>
+      <c r="R8" s="3">
+        <v>3510.51</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3561.0219999999999</v>
+      </c>
+      <c r="T8" s="3">
+        <v>3681.5540000000001</v>
+      </c>
+      <c r="U8" s="3">
+        <v>3765.5189999999998</v>
+      </c>
+      <c r="V8" s="3">
+        <v>3975.05</v>
+      </c>
+      <c r="W8" s="3">
+        <v>4314.433</v>
+      </c>
+      <c r="X8" s="3">
+        <v>4639.335</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>5089.9380000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3">
+        <v>383.05099999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>415.24799999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>441.774</v>
+      </c>
+      <c r="I9" s="3">
+        <v>469.83300000000003</v>
+      </c>
+      <c r="J9" s="3">
+        <v>507.46800000000002</v>
+      </c>
+      <c r="K9" s="3">
+        <v>598.76199999999994</v>
+      </c>
+      <c r="L9" s="3">
+        <v>663.48800000000006</v>
+      </c>
+      <c r="M9" s="3">
+        <v>744.02800000000002</v>
+      </c>
+      <c r="N9" s="3">
+        <v>839.53499999999997</v>
+      </c>
+      <c r="O9" s="3">
+        <v>795.09199999999998</v>
+      </c>
+      <c r="P9" s="3">
+        <v>822.96699999999998</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>858.85900000000004</v>
+      </c>
+      <c r="R9" s="3">
+        <v>887.21799999999996</v>
+      </c>
+      <c r="S9" s="3">
+        <v>925.35299999999995</v>
+      </c>
+      <c r="T9" s="3">
+        <v>995.74199999999996</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1014.918</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1058.7149999999999</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1158.7139999999999</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1188.5609999999999</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1244.4059999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3">
+        <v>342.14400000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>358.16699999999997</v>
+      </c>
+      <c r="H10" s="3">
+        <v>394.38200000000001</v>
+      </c>
+      <c r="I10" s="3">
+        <v>411.23500000000001</v>
+      </c>
+      <c r="J10" s="3">
+        <v>406.43299999999999</v>
+      </c>
+      <c r="K10" s="3">
+        <v>424.59199999999998</v>
+      </c>
+      <c r="L10" s="3">
+        <v>454.45</v>
+      </c>
+      <c r="M10" s="3">
+        <v>493.36900000000003</v>
+      </c>
+      <c r="N10" s="3">
+        <v>521.99</v>
+      </c>
+      <c r="O10" s="3">
+        <v>512.399</v>
+      </c>
+      <c r="P10" s="3">
+        <v>543.24900000000002</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>544.74</v>
+      </c>
+      <c r="R10" s="3">
+        <v>553.61400000000003</v>
+      </c>
+      <c r="S10" s="3">
+        <v>551.9</v>
+      </c>
+      <c r="T10" s="3">
+        <v>543.71699999999998</v>
+      </c>
+      <c r="U10" s="3">
+        <v>558.54600000000005</v>
+      </c>
+      <c r="V10" s="3">
+        <v>575.87</v>
+      </c>
+      <c r="W10" s="3">
+        <v>648.75599999999997</v>
+      </c>
+      <c r="X10" s="3">
+        <v>679.86099999999999</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>727.12400000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3">
+        <v>524.55100000000004</v>
+      </c>
+      <c r="G11" s="3">
+        <v>628.16399999999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>728.024</v>
+      </c>
+      <c r="I11" s="3">
+        <v>819.38099999999997</v>
+      </c>
+      <c r="J11" s="3">
+        <v>889.16300000000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>921.20799999999997</v>
+      </c>
+      <c r="L11" s="3">
+        <v>949.08</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1025.0319999999999</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1145.722</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1161.9010000000001</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1177.5239999999999</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1229.375</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1243.7529999999999</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1272.3789999999999</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1293.7460000000001</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1294.692</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1289.9659999999999</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1314.521</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1363.3109999999999</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1464.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3">
+        <v>339.58300000000003</v>
+      </c>
+      <c r="G12" s="3">
+        <v>346.65800000000002</v>
+      </c>
+      <c r="H12" s="3">
+        <v>394.13499999999999</v>
+      </c>
+      <c r="I12" s="3">
+        <v>450.697</v>
+      </c>
+      <c r="J12" s="3">
+        <v>512.11699999999996</v>
+      </c>
+      <c r="K12" s="3">
+        <v>616.60599999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>679.83900000000006</v>
+      </c>
+      <c r="M12" s="3">
+        <v>847.51</v>
+      </c>
+      <c r="N12" s="3">
+        <v>891.70299999999997</v>
+      </c>
+      <c r="O12" s="3">
+        <v>917.24699999999996</v>
+      </c>
+      <c r="P12" s="3">
+        <v>939.52</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>995.98599999999999</v>
+      </c>
+      <c r="R12" s="3">
+        <v>988.68799999999999</v>
+      </c>
+      <c r="S12" s="3">
+        <v>995.23900000000003</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1030.8489999999999</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1048.4659999999999</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1101.501</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1200.6210000000001</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1255.636</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1311.4110000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1084.472</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1133.32</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1194.0319999999999</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1216.556</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1231.913</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1223.307</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1216.6780000000001</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1217.1220000000001</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1241.2619999999999</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1303.0219999999999</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1319.586</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1322.6669999999999</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1353.117</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1396.931</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1411.19</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1435.7170000000001</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1472.4090000000001</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1604.182</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1667.2370000000001</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1713.635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3">
+        <v>232.36199999999999</v>
+      </c>
+      <c r="G14" s="3">
+        <v>236.40100000000001</v>
+      </c>
+      <c r="H14" s="3">
+        <v>286.10599999999999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>321.98200000000003</v>
+      </c>
+      <c r="J14" s="3">
+        <v>378.351</v>
+      </c>
+      <c r="K14" s="3">
+        <v>468.58499999999998</v>
+      </c>
+      <c r="L14" s="3">
+        <v>497.70400000000001</v>
+      </c>
+      <c r="M14" s="3">
+        <v>573.471</v>
+      </c>
+      <c r="N14" s="3">
+        <v>638.36699999999996</v>
+      </c>
+      <c r="O14" s="3">
+        <v>660.36500000000001</v>
+      </c>
+      <c r="P14" s="3">
+        <v>686.70600000000002</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>731.11099999999999</v>
+      </c>
+      <c r="R14" s="3">
+        <v>752.61400000000003</v>
+      </c>
+      <c r="S14" s="3">
+        <v>698.19299999999998</v>
+      </c>
+      <c r="T14" s="3">
+        <v>708.08</v>
+      </c>
+      <c r="U14" s="3">
+        <v>782.00199999999995</v>
+      </c>
+      <c r="V14" s="3">
+        <v>848.44100000000003</v>
+      </c>
+      <c r="W14" s="3">
+        <v>850.88499999999999</v>
+      </c>
+      <c r="X14" s="3">
+        <v>915.351</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1005.564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3">
+        <v>57.353000000000002</v>
+      </c>
+      <c r="G15" s="3">
+        <v>60.972999999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>65.7</v>
+      </c>
+      <c r="I15" s="3">
+        <v>74.427999999999997</v>
+      </c>
+      <c r="J15" s="3">
+        <v>87.146000000000001</v>
+      </c>
+      <c r="K15" s="3">
+        <v>108.51</v>
+      </c>
+      <c r="L15" s="3">
+        <v>125.21</v>
+      </c>
+      <c r="M15" s="3">
+        <v>148.34299999999999</v>
+      </c>
+      <c r="N15" s="3">
+        <v>175.30799999999999</v>
+      </c>
+      <c r="O15" s="3">
+        <v>160.89599999999999</v>
+      </c>
+      <c r="P15" s="3">
+        <v>168.44900000000001</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>169.16399999999999</v>
+      </c>
+      <c r="R15" s="3">
+        <v>179.92699999999999</v>
+      </c>
+      <c r="S15" s="3">
+        <v>191.32900000000001</v>
+      </c>
+      <c r="T15" s="3">
+        <v>221.155</v>
+      </c>
+      <c r="U15" s="3">
+        <v>233.15199999999999</v>
+      </c>
+      <c r="V15" s="3">
+        <v>246.779</v>
+      </c>
+      <c r="W15" s="3">
+        <v>267.72899999999998</v>
+      </c>
+      <c r="X15" s="3">
+        <v>296.012</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>339.43299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1201.231</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1242.6980000000001</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1377.433</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1357.4469999999999</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1387.345</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1470.33</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1635.8150000000001</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1845.6869999999999</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2170.6060000000002</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2338.652</v>
+      </c>
+      <c r="P16" s="3">
+        <v>2265.444</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2368.2739999999999</v>
+      </c>
+      <c r="R16" s="3">
+        <v>2351.59</v>
+      </c>
+      <c r="S16" s="3">
+        <v>2344.3939999999998</v>
+      </c>
+      <c r="T16" s="3">
+        <v>2406.3020000000001</v>
+      </c>
+      <c r="U16" s="3">
+        <v>2441.7600000000002</v>
+      </c>
+      <c r="V16" s="3">
+        <v>2411.4589999999998</v>
+      </c>
+      <c r="W16" s="3">
+        <v>2412.194</v>
+      </c>
+      <c r="X16" s="3">
+        <v>2463.4540000000002</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>2583.9169999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3">
+        <v>507.35300000000001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>518.68399999999997</v>
+      </c>
+      <c r="H17" s="3">
+        <v>572.00699999999995</v>
+      </c>
+      <c r="I17" s="3">
+        <v>602.88499999999999</v>
+      </c>
+      <c r="J17" s="3">
+        <v>648.16700000000003</v>
+      </c>
+      <c r="K17" s="3">
+        <v>696.1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>795.25599999999997</v>
+      </c>
+      <c r="M17" s="3">
+        <v>914.23099999999999</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1125.0630000000001</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1172.9169999999999</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1190.1320000000001</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1260.903</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1272.2639999999999</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1260.1300000000001</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1302.124</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1315.047</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1319.502</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1327.2360000000001</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1386.664</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1491.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3">
+        <v>458.35399999999998</v>
+      </c>
+      <c r="G18" s="3">
+        <v>488.53800000000001</v>
+      </c>
+      <c r="H18" s="3">
+        <v>542.77599999999995</v>
+      </c>
+      <c r="I18" s="3">
+        <v>608.54100000000005</v>
+      </c>
+      <c r="J18" s="3">
+        <v>637.65499999999997</v>
+      </c>
+      <c r="K18" s="3">
+        <v>674.25</v>
+      </c>
+      <c r="L18" s="3">
+        <v>733.21</v>
+      </c>
+      <c r="M18" s="3">
+        <v>832.40499999999997</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1089.355</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1091.9480000000001</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1142.0250000000001</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1213.0150000000001</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1249.825</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1278.508</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1326.6089999999999</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1356.4739999999999</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1370.569</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1417.3330000000001</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1542.298</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1661.0229999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3">
+        <v>50.924999999999997</v>
+      </c>
+      <c r="G19" s="3">
+        <v>66.855999999999995</v>
+      </c>
+      <c r="H19" s="3">
+        <v>79.125</v>
+      </c>
+      <c r="I19" s="3">
+        <v>94.703999999999994</v>
+      </c>
+      <c r="J19" s="3">
+        <v>112.81</v>
+      </c>
+      <c r="K19" s="3">
+        <v>122.383</v>
+      </c>
+      <c r="L19" s="3">
+        <v>146.21</v>
+      </c>
+      <c r="M19" s="3">
+        <v>177.34800000000001</v>
+      </c>
+      <c r="N19" s="3">
+        <v>184.46600000000001</v>
+      </c>
+      <c r="O19" s="3">
+        <v>197.31700000000001</v>
+      </c>
+      <c r="P19" s="3">
+        <v>204.4</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>218.82900000000001</v>
+      </c>
+      <c r="R19" s="3">
+        <v>234.06299999999999</v>
+      </c>
+      <c r="S19" s="3">
+        <v>254.251</v>
+      </c>
+      <c r="T19" s="3">
+        <v>292.53199999999998</v>
+      </c>
+      <c r="U19" s="3">
+        <v>316.26499999999999</v>
+      </c>
+      <c r="V19" s="3">
+        <v>385.91800000000001</v>
+      </c>
+      <c r="W19" s="3">
+        <v>452.90499999999997</v>
+      </c>
+      <c r="X19" s="3">
+        <v>464.89</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>497.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3">
+        <v>158.404</v>
+      </c>
+      <c r="G20" s="3">
+        <v>153.84899999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>157.73500000000001</v>
+      </c>
+      <c r="I20" s="3">
+        <v>169.36099999999999</v>
+      </c>
+      <c r="J20" s="3">
+        <v>193.928</v>
+      </c>
+      <c r="K20" s="3">
+        <v>215.42699999999999</v>
+      </c>
+      <c r="L20" s="3">
+        <v>231.738</v>
+      </c>
+      <c r="M20" s="3">
+        <v>258.51499999999999</v>
+      </c>
+      <c r="N20" s="3">
+        <v>303.50299999999999</v>
+      </c>
+      <c r="O20" s="3">
+        <v>296.60399999999998</v>
+      </c>
+      <c r="P20" s="3">
+        <v>305.47500000000002</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>308.084</v>
+      </c>
+      <c r="R20" s="3">
+        <v>313.68799999999999</v>
+      </c>
+      <c r="S20" s="3">
+        <v>308.548</v>
+      </c>
+      <c r="T20" s="3">
+        <v>321.62400000000002</v>
+      </c>
+      <c r="U20" s="3">
+        <v>327.77100000000002</v>
+      </c>
+      <c r="V20" s="3">
+        <v>339.935</v>
+      </c>
+      <c r="W20" s="3">
+        <v>347.09500000000003</v>
+      </c>
+      <c r="X20" s="3">
+        <v>374.36900000000003</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>398.02199999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3">
+        <v>10033.898999999999</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10728.121999999999</v>
+      </c>
+      <c r="H21" s="3">
+        <v>11687.53</v>
+      </c>
+      <c r="I21" s="3">
+        <v>12329.662</v>
+      </c>
+      <c r="J21" s="3">
+        <v>13506.316999999999</v>
+      </c>
+      <c r="K21" s="3">
+        <v>14891.26</v>
+      </c>
+      <c r="L21" s="3">
+        <v>16382.513000000001</v>
+      </c>
+      <c r="M21" s="3">
+        <v>18493.172999999999</v>
+      </c>
+      <c r="N21" s="3">
+        <v>21451.55</v>
+      </c>
+      <c r="O21" s="3">
+        <v>21233.58</v>
+      </c>
+      <c r="P21" s="3">
+        <v>21499.188999999998</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>22235.120999999999</v>
+      </c>
+      <c r="R21" s="3">
+        <v>22170.523000000001</v>
+      </c>
+      <c r="S21" s="3">
+        <v>22848.219000000001</v>
+      </c>
+      <c r="T21" s="3">
+        <v>23225.052</v>
+      </c>
+      <c r="U21" s="3">
+        <v>23922.168000000001</v>
+      </c>
+      <c r="V21" s="3">
+        <v>25024.677</v>
+      </c>
+      <c r="W21" s="3">
+        <v>26396.958999999999</v>
+      </c>
+      <c r="X21" s="3">
+        <v>28226.091</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>29781.822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="3">
+        <v>398.37400000000002</v>
+      </c>
+      <c r="O22" s="3">
+        <v>298.80500000000001</v>
+      </c>
+      <c r="P22" s="3">
+        <v>381.20400000000001</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>370.512</v>
+      </c>
+      <c r="R22" s="3">
+        <v>357.17899999999997</v>
+      </c>
+      <c r="S22" s="3">
+        <v>427.59500000000003</v>
+      </c>
+      <c r="T22" s="3">
+        <v>441.91399999999999</v>
+      </c>
+      <c r="U22" s="3">
+        <v>435.63499999999999</v>
+      </c>
+      <c r="V22" s="3">
+        <v>493.33699999999999</v>
+      </c>
+      <c r="W22" s="3">
+        <v>470.93200000000002</v>
+      </c>
+      <c r="X22" s="3">
+        <v>435.72800000000001</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>510.77300000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="3">
+        <v>90.953999999999994</v>
+      </c>
+      <c r="O23" s="3">
+        <v>91.132000000000005</v>
+      </c>
+      <c r="P23" s="3">
+        <v>99.239000000000004</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>115.971</v>
+      </c>
+      <c r="R23" s="3">
+        <v>113.886</v>
+      </c>
+      <c r="S23" s="3">
+        <v>106.70099999999999</v>
+      </c>
+      <c r="T23" s="3">
+        <v>106.399</v>
+      </c>
+      <c r="U23" s="3">
+        <v>111.027</v>
+      </c>
+      <c r="V23" s="3">
+        <v>135.35900000000001</v>
+      </c>
+      <c r="W23" s="3">
+        <v>140.94900000000001</v>
+      </c>
+      <c r="X23" s="3">
+        <v>145.613</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>141.292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="3">
+        <v>496.74099999999999</v>
+      </c>
+      <c r="O24" s="3">
+        <v>537.07100000000003</v>
+      </c>
+      <c r="P24" s="3">
+        <v>555.173</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>597.71600000000001</v>
+      </c>
+      <c r="R24" s="3">
+        <v>635.77300000000002</v>
+      </c>
+      <c r="S24" s="3">
+        <v>685.24699999999996</v>
+      </c>
+      <c r="T24" s="3">
+        <v>717.34699999999998</v>
+      </c>
+      <c r="U24" s="3">
+        <v>752.66499999999996</v>
+      </c>
+      <c r="V24" s="3">
+        <v>788.18100000000004</v>
+      </c>
+      <c r="W24" s="3">
+        <v>812.66300000000001</v>
+      </c>
+      <c r="X24" s="3">
+        <v>875.803</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>907.61400000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="3">
+        <v>83.265000000000001</v>
+      </c>
+      <c r="O25" s="3">
+        <v>93.105999999999995</v>
+      </c>
+      <c r="P25" s="3">
+        <v>98.796999999999997</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>123.45</v>
+      </c>
+      <c r="R25" s="3">
+        <v>128.28</v>
+      </c>
+      <c r="S25" s="3">
+        <v>144.87</v>
+      </c>
+      <c r="T25" s="3">
+        <v>156.739</v>
+      </c>
+      <c r="U25" s="3">
+        <v>191.221</v>
+      </c>
+      <c r="V25" s="3">
+        <v>211.821</v>
+      </c>
+      <c r="W25" s="3">
+        <v>230.77699999999999</v>
+      </c>
+      <c r="X25" s="3">
+        <v>233.08500000000001</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>238.92699999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="3">
+        <v>21.736000000000001</v>
+      </c>
+      <c r="O26" s="3">
+        <v>25.794</v>
+      </c>
+      <c r="P26" s="3">
+        <v>27.939</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>32.473999999999997</v>
+      </c>
+      <c r="R26" s="3">
+        <v>36.113</v>
+      </c>
+      <c r="S26" s="3">
+        <v>37.883000000000003</v>
+      </c>
+      <c r="T26" s="3">
+        <v>40.581000000000003</v>
+      </c>
+      <c r="U26" s="3">
+        <v>42.284999999999997</v>
+      </c>
+      <c r="V26" s="3">
+        <v>43.731999999999999</v>
+      </c>
+      <c r="W26" s="3">
+        <v>47.71</v>
+      </c>
+      <c r="X26" s="3">
+        <v>47.734000000000002</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>46.478000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="3">
+        <v>263.99099999999999</v>
+      </c>
+      <c r="O27" s="3">
+        <v>263.47899999999998</v>
+      </c>
+      <c r="P27" s="3">
+        <v>308.88</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>383.93799999999999</v>
+      </c>
+      <c r="R27" s="3">
+        <v>405.60500000000002</v>
+      </c>
+      <c r="S27" s="3">
+        <v>404.053</v>
+      </c>
+      <c r="T27" s="3">
+        <v>390.99299999999999</v>
+      </c>
+      <c r="U27" s="3">
+        <v>431.67500000000001</v>
+      </c>
+      <c r="V27" s="3">
+        <v>442.423</v>
+      </c>
+      <c r="W27" s="3">
+        <v>517.67899999999997</v>
+      </c>
+      <c r="X27" s="3">
+        <v>559.67700000000002</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>577.09199999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="3">
+        <v>489.31099999999998</v>
+      </c>
+      <c r="O28" s="3">
+        <v>496.01799999999997</v>
+      </c>
+      <c r="P28" s="3">
+        <v>523.21299999999997</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>574.26199999999994</v>
+      </c>
+      <c r="R28" s="3">
+        <v>610.80799999999999</v>
+      </c>
+      <c r="S28" s="3">
+        <v>629.149</v>
+      </c>
+      <c r="T28" s="3">
+        <v>648.19799999999998</v>
+      </c>
+      <c r="U28" s="3">
+        <v>699.12300000000005</v>
+      </c>
+      <c r="V28" s="3">
+        <v>742.82799999999997</v>
+      </c>
+      <c r="W28" s="3">
+        <v>797.25099999999998</v>
+      </c>
+      <c r="X28" s="3">
+        <v>833.72400000000005</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>900.21100000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="3">
+        <v>137.62299999999999</v>
+      </c>
+      <c r="O29" s="3">
+        <v>148.24299999999999</v>
+      </c>
+      <c r="P29" s="3">
+        <v>162.501</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>178.453</v>
+      </c>
+      <c r="R29" s="3">
+        <v>195.57400000000001</v>
+      </c>
+      <c r="S29" s="3">
+        <v>212.47200000000001</v>
+      </c>
+      <c r="T29" s="3">
+        <v>240.864</v>
+      </c>
+      <c r="U29" s="3">
+        <v>258.54899999999998</v>
+      </c>
+      <c r="V29" s="3">
+        <v>268.47199999999998</v>
+      </c>
+      <c r="W29" s="3">
+        <v>283.36700000000002</v>
+      </c>
+      <c r="X29" s="3">
+        <v>298.04500000000002</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>309.37599999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="3">
+        <v>34.289000000000001</v>
+      </c>
+      <c r="O30" s="3">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="P30" s="3">
+        <v>43.853000000000002</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>55.238999999999997</v>
+      </c>
+      <c r="R30" s="3">
+        <v>61.959000000000003</v>
+      </c>
+      <c r="S30" s="3">
+        <v>78.465000000000003</v>
+      </c>
+      <c r="T30" s="3">
+        <v>82.736999999999995</v>
+      </c>
+      <c r="U30" s="3">
+        <v>89.308999999999997</v>
+      </c>
+      <c r="V30" s="3">
+        <v>96.659000000000006</v>
+      </c>
+      <c r="W30" s="3">
+        <v>116.839</v>
+      </c>
+      <c r="X30" s="3">
+        <v>129.05000000000001</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>146.70500000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="3">
+        <v>50.238999999999997</v>
+      </c>
+      <c r="O31" s="3">
+        <v>54.393999999999998</v>
+      </c>
+      <c r="P31" s="3">
+        <v>62.298000000000002</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>71.424000000000007</v>
+      </c>
+      <c r="R31" s="3">
+        <v>76.796000000000006</v>
+      </c>
+      <c r="S31" s="3">
+        <v>85.081999999999994</v>
+      </c>
+      <c r="T31" s="3">
+        <v>95.933000000000007</v>
+      </c>
+      <c r="U31" s="3">
+        <v>101.17700000000001</v>
+      </c>
+      <c r="V31" s="3">
+        <v>107.708</v>
+      </c>
+      <c r="W31" s="3">
+        <v>113.331</v>
+      </c>
+      <c r="X31" s="3">
+        <v>124.441</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>130.78399999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="3">
+        <v>129.726</v>
+      </c>
+      <c r="O32" s="3">
+        <v>130.77799999999999</v>
+      </c>
+      <c r="P32" s="3">
+        <v>153.86699999999999</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>175.01</v>
+      </c>
+      <c r="R32" s="3">
+        <v>195.251</v>
+      </c>
+      <c r="S32" s="3">
+        <v>216.024</v>
+      </c>
+      <c r="T32" s="3">
+        <v>221.78899999999999</v>
+      </c>
+      <c r="U32" s="3">
+        <v>214.48400000000001</v>
+      </c>
+      <c r="V32" s="3">
+        <v>182.37899999999999</v>
+      </c>
+      <c r="W32" s="3">
+        <v>196.22900000000001</v>
+      </c>
+      <c r="X32" s="3">
+        <v>237.273</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>272.55799999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="3">
+        <v>345.99299999999999</v>
+      </c>
+      <c r="O33" s="3">
+        <v>360.33100000000002</v>
+      </c>
+      <c r="P33" s="3">
+        <v>356.459</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>360.363</v>
+      </c>
+      <c r="R33" s="3">
+        <v>384.19600000000003</v>
+      </c>
+      <c r="S33" s="3">
+        <v>407.66800000000001</v>
+      </c>
+      <c r="T33" s="3">
+        <v>415.48099999999999</v>
+      </c>
+      <c r="U33" s="3">
+        <v>424.33800000000002</v>
+      </c>
+      <c r="V33" s="3">
+        <v>441.54700000000003</v>
+      </c>
+      <c r="W33" s="3">
+        <v>456.67899999999997</v>
+      </c>
+      <c r="X33" s="3">
+        <v>474.82</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>490.44099999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="3">
+        <v>48.591999999999999</v>
+      </c>
+      <c r="O34" s="3">
+        <v>53.277000000000001</v>
+      </c>
+      <c r="P34" s="3">
+        <v>59.061</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>68.790999999999997</v>
+      </c>
+      <c r="R34" s="3">
+        <v>78.433000000000007</v>
+      </c>
+      <c r="S34" s="3">
+        <v>77.457999999999998</v>
+      </c>
+      <c r="T34" s="3">
+        <v>82.167000000000002</v>
+      </c>
+      <c r="U34" s="3">
+        <v>91.629000000000005</v>
+      </c>
+      <c r="V34" s="3">
+        <v>94.39</v>
+      </c>
+      <c r="W34" s="3">
+        <v>96.605999999999995</v>
+      </c>
+      <c r="X34" s="3">
+        <v>97.762</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>99.929000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="3">
+        <v>24.327000000000002</v>
+      </c>
+      <c r="O35" s="3">
+        <v>27.751999999999999</v>
+      </c>
+      <c r="P35" s="3">
+        <v>28.052</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>30.878</v>
+      </c>
+      <c r="R35" s="3">
+        <v>33.442</v>
+      </c>
+      <c r="S35" s="3">
+        <v>36.637</v>
+      </c>
+      <c r="T35" s="3">
+        <v>37.716999999999999</v>
+      </c>
+      <c r="U35" s="3">
+        <v>39.293999999999997</v>
+      </c>
+      <c r="V35" s="3">
+        <v>41.738999999999997</v>
+      </c>
+      <c r="W35" s="3">
+        <v>45.07</v>
+      </c>
+      <c r="X35" s="3">
+        <v>49.338000000000001</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>52.125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="3">
+        <v>127.259</v>
+      </c>
+      <c r="O36" s="3">
+        <v>154.21600000000001</v>
+      </c>
+      <c r="P36" s="3">
+        <v>204.845</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>249.136</v>
+      </c>
+      <c r="R36" s="3">
+        <v>275.81299999999999</v>
+      </c>
+      <c r="S36" s="3">
+        <v>297.83999999999997</v>
+      </c>
+      <c r="T36" s="3">
+        <v>312.34300000000002</v>
+      </c>
+      <c r="U36" s="3">
+        <v>332.74400000000003</v>
+      </c>
+      <c r="V36" s="3">
+        <v>341.553</v>
+      </c>
+      <c r="W36" s="3">
+        <v>355.51499999999999</v>
+      </c>
+      <c r="X36" s="3">
+        <v>386.55599999999998</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>419.18299999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="3">
+        <v>120.922</v>
+      </c>
+      <c r="O37" s="3">
+        <v>136.32599999999999</v>
+      </c>
+      <c r="P37" s="3">
+        <v>144.84800000000001</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>179.77</v>
+      </c>
+      <c r="R37" s="3">
+        <v>189.244</v>
+      </c>
+      <c r="S37" s="3">
+        <v>193.67599999999999</v>
+      </c>
+      <c r="T37" s="3">
+        <v>217.53899999999999</v>
+      </c>
+      <c r="U37" s="3">
+        <v>233.137</v>
+      </c>
+      <c r="V37" s="3">
+        <v>242.071</v>
+      </c>
+      <c r="W37" s="3">
+        <v>244.82</v>
+      </c>
+      <c r="X37" s="3">
+        <v>254.655</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>258.01900000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="3">
+        <v>48.591999999999999</v>
+      </c>
+      <c r="O38" s="3">
+        <v>57.488999999999997</v>
+      </c>
+      <c r="P38" s="3">
+        <v>73.301000000000002</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>84.120999999999995</v>
+      </c>
+      <c r="R38" s="3">
+        <v>91</v>
+      </c>
+      <c r="S38" s="3">
+        <v>95.974000000000004</v>
+      </c>
+      <c r="T38" s="3">
+        <v>106.741</v>
+      </c>
+      <c r="U38" s="3">
+        <v>117.852</v>
+      </c>
+      <c r="V38" s="3">
+        <v>124.904</v>
+      </c>
+      <c r="W38" s="3">
+        <v>129.49600000000001</v>
+      </c>
+      <c r="X38" s="3">
+        <v>143.69800000000001</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>154.59899999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="3">
+        <v>14.465</v>
+      </c>
+      <c r="O39" s="3">
+        <v>15.073</v>
+      </c>
+      <c r="P39" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>18.733000000000001</v>
+      </c>
+      <c r="R39" s="3">
+        <v>19.722999999999999</v>
+      </c>
+      <c r="S39" s="3">
+        <v>20.393000000000001</v>
+      </c>
+      <c r="T39" s="3">
+        <v>21.928000000000001</v>
+      </c>
+      <c r="U39" s="3">
+        <v>23.407</v>
+      </c>
+      <c r="V39" s="3">
+        <v>25.84</v>
+      </c>
+      <c r="W39" s="3">
+        <v>27.157</v>
+      </c>
+      <c r="X39" s="3">
+        <v>28.855</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>17.283999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="O40" s="3">
+        <v>19.341999999999999</v>
+      </c>
+      <c r="P40" s="3">
+        <v>19.536999999999999</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>20.13</v>
+      </c>
+      <c r="R40" s="3">
+        <v>21.853000000000002</v>
+      </c>
+      <c r="S40" s="3">
+        <v>22.422999999999998</v>
+      </c>
+      <c r="T40" s="3">
+        <v>21.692</v>
+      </c>
+      <c r="U40" s="3">
+        <v>21.47</v>
+      </c>
+      <c r="V40" s="3">
+        <v>22.253</v>
+      </c>
+      <c r="W40" s="3">
+        <v>22.904</v>
+      </c>
+      <c r="X40" s="3">
+        <v>23.934999999999999</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>25.245000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="3">
+        <v>2945.5990000000002</v>
+      </c>
+      <c r="O41" s="3">
+        <v>2999.6060000000002</v>
+      </c>
+      <c r="P41" s="3">
+        <v>3319.768</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>3690.3710000000001</v>
+      </c>
+      <c r="R41" s="3">
+        <v>3910.9319999999998</v>
+      </c>
+      <c r="S41" s="3">
+        <v>4179.6109999999999</v>
+      </c>
+      <c r="T41" s="3">
+        <v>4359.1030000000001</v>
+      </c>
+      <c r="U41" s="3">
+        <v>4611.0209999999997</v>
+      </c>
+      <c r="V41" s="3">
+        <v>4847.1980000000003</v>
+      </c>
+      <c r="W41" s="3">
+        <v>5105.9740000000002</v>
+      </c>
+      <c r="X41" s="3">
+        <v>5379.7929999999997</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>5698.6350000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4070.4609999999998</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4271.3609999999999</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4741.6540000000005</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5062.0659999999998</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5633.384</v>
+      </c>
+      <c r="K42" s="3">
+        <v>6174.8509999999997</v>
+      </c>
+      <c r="L42" s="3">
+        <v>6488.8270000000002</v>
+      </c>
+      <c r="M42" s="3">
+        <v>5333.9009999999998</v>
+      </c>
+      <c r="N42" s="3">
+        <v>5544.0159999999996</v>
+      </c>
+      <c r="O42" s="3">
+        <v>5134.5060000000003</v>
+      </c>
+      <c r="P42" s="3">
+        <v>9629.4169999999995</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>11244.547</v>
+      </c>
+      <c r="R42" s="3">
+        <v>11020.752</v>
+      </c>
+      <c r="S42" s="3">
+        <v>13806.478999999999</v>
+      </c>
+      <c r="T42" s="3">
+        <v>18568.633999999998</v>
+      </c>
+      <c r="U42" s="3">
+        <v>18813.937000000002</v>
+      </c>
+      <c r="V42" s="3">
+        <v>19844.093000000001</v>
+      </c>
+      <c r="W42" s="3">
+        <v>21472.17</v>
+      </c>
+      <c r="X42" s="3">
+        <v>19183.955000000002</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>20957.310000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="3">
+        <v>25.584</v>
+      </c>
+      <c r="G43" s="3">
+        <v>35.573</v>
+      </c>
+      <c r="H43" s="3">
+        <v>49.65</v>
+      </c>
+      <c r="I43" s="3">
+        <v>70.423000000000002</v>
+      </c>
+      <c r="J43" s="3">
+        <v>105.961</v>
+      </c>
+      <c r="K43" s="3">
+        <v>143.66200000000001</v>
+      </c>
+      <c r="L43" s="3">
+        <v>224.39</v>
+      </c>
+      <c r="M43" s="3">
+        <v>262.642</v>
+      </c>
+      <c r="N43" s="3">
+        <v>315.14499999999998</v>
+      </c>
+      <c r="O43" s="3">
+        <v>241.20699999999999</v>
+      </c>
+      <c r="P43" s="3">
+        <v>196.36</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>258.91899999999998</v>
+      </c>
+      <c r="R43" s="3">
+        <v>270.971</v>
+      </c>
+      <c r="S43" s="3">
+        <v>345.60599999999999</v>
+      </c>
+      <c r="T43" s="3">
+        <v>486.92399999999998</v>
+      </c>
+      <c r="U43" s="3">
+        <v>481.65499999999997</v>
+      </c>
+      <c r="V43" s="3">
+        <v>394.39800000000002</v>
+      </c>
+      <c r="W43" s="3">
+        <v>483.07400000000001</v>
+      </c>
+      <c r="X43" s="3">
+        <v>640.32799999999997</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>776.05100000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2235.2260000000001</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2945.4670000000001</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3285.6579999999999</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4180.4260000000004</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4558.2860000000001</v>
+      </c>
+      <c r="K44" s="3">
+        <v>4922.0680000000002</v>
+      </c>
+      <c r="L44" s="3">
+        <v>5480.3770000000004</v>
+      </c>
+      <c r="M44" s="3">
+        <v>6168.3389999999999</v>
+      </c>
+      <c r="N44" s="3">
+        <v>6946.5910000000003</v>
+      </c>
+      <c r="O44" s="3">
+        <v>6269.366</v>
+      </c>
+      <c r="P44" s="3">
+        <v>8587.6550000000007</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>10435.093000000001</v>
+      </c>
+      <c r="R44" s="3">
+        <v>11238.32</v>
+      </c>
+      <c r="S44" s="3">
+        <v>13380.333000000001</v>
+      </c>
+      <c r="T44" s="3">
+        <v>13287.656000000001</v>
+      </c>
+      <c r="U44" s="3">
+        <v>14697.237999999999</v>
+      </c>
+      <c r="V44" s="3">
+        <v>15954.519</v>
+      </c>
+      <c r="W44" s="3">
+        <v>17548.056</v>
+      </c>
+      <c r="X44" s="3">
+        <v>19037.09</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>20407.673999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="3">
+        <v>293.62200000000001</v>
+      </c>
+      <c r="G45" s="3">
+        <v>499.36900000000003</v>
+      </c>
+      <c r="H45" s="3">
+        <v>475.887</v>
+      </c>
+      <c r="I45" s="3">
+        <v>500.447</v>
+      </c>
+      <c r="J45" s="3">
+        <v>679.17200000000003</v>
+      </c>
+      <c r="K45" s="3">
+        <v>734.995</v>
+      </c>
+      <c r="L45" s="3">
+        <v>730.5</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1016.255</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1275</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1321.4079999999999</v>
+      </c>
+      <c r="P45" s="3">
+        <v>2499.6350000000002</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>2778.4569999999999</v>
+      </c>
+      <c r="R45" s="3">
+        <v>2940.2080000000001</v>
+      </c>
+      <c r="S45" s="3">
+        <v>3163.4740000000002</v>
+      </c>
+      <c r="T45" s="3">
+        <v>3020.527</v>
+      </c>
+      <c r="U45" s="3">
+        <v>4074.3820000000001</v>
+      </c>
+      <c r="V45" s="3">
+        <v>4507.7089999999998</v>
+      </c>
+      <c r="W45" s="3">
+        <v>4788.5829999999996</v>
+      </c>
+      <c r="X45" s="3">
+        <v>4833.7060000000001</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>4768.884</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="3">
+        <v>80.218999999999994</v>
+      </c>
+      <c r="G46" s="3">
+        <v>121.54300000000001</v>
+      </c>
+      <c r="H46" s="3">
+        <v>121.43</v>
+      </c>
+      <c r="I46" s="3">
+        <v>146.709</v>
+      </c>
+      <c r="J46" s="3">
+        <v>191.636</v>
+      </c>
+      <c r="K46" s="3">
+        <v>159.21199999999999</v>
+      </c>
+      <c r="L46" s="3">
+        <v>192.137</v>
+      </c>
+      <c r="M46" s="3">
+        <v>354.935</v>
+      </c>
+      <c r="N46" s="3">
+        <v>380.00599999999997</v>
+      </c>
+      <c r="O46" s="3">
+        <v>430.80399999999997</v>
+      </c>
+      <c r="P46" s="3">
+        <v>563.46600000000001</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>724.65300000000002</v>
+      </c>
+      <c r="R46" s="3">
+        <v>808.44399999999996</v>
+      </c>
+      <c r="S46" s="3">
+        <v>919.96</v>
+      </c>
+      <c r="T46" s="3">
+        <v>730.10799999999995</v>
+      </c>
+      <c r="U46" s="3">
+        <v>772.82100000000003</v>
+      </c>
+      <c r="V46" s="3">
+        <v>801.10699999999997</v>
+      </c>
+      <c r="W46" s="3">
+        <v>1033.557</v>
+      </c>
+      <c r="X46" s="3">
+        <v>1110.2339999999999</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>1177.6959999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="3">
+        <v>432.721</v>
+      </c>
+      <c r="G47" s="3">
+        <v>583.505</v>
+      </c>
+      <c r="H47" s="3">
+        <v>665.33299999999997</v>
+      </c>
+      <c r="I47" s="3">
+        <v>811.63800000000003</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1101.1849999999999</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1257.0440000000001</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1776.4590000000001</v>
+      </c>
+      <c r="M47" s="3">
+        <v>2585.8989999999999</v>
+      </c>
+      <c r="N47" s="3">
+        <v>3115.0360000000001</v>
+      </c>
+      <c r="O47" s="3">
+        <v>2108.7060000000001</v>
+      </c>
+      <c r="P47" s="3">
+        <v>5782.3010000000004</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>6456.9849999999997</v>
+      </c>
+      <c r="R47" s="3">
+        <v>7224.6419999999998</v>
+      </c>
+      <c r="S47" s="3">
+        <v>8013.62</v>
+      </c>
+      <c r="T47" s="3">
+        <v>10354.052</v>
+      </c>
+      <c r="U47" s="3">
+        <v>10947.335999999999</v>
+      </c>
+      <c r="V47" s="3">
+        <v>12043.674000000001</v>
+      </c>
+      <c r="W47" s="3">
+        <v>13141.486000000001</v>
+      </c>
+      <c r="X47" s="3">
+        <v>16252.188</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>18087.97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2001.81</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2286.17</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2486.953</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2965.4409999999998</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3382.3310000000001</v>
+      </c>
+      <c r="K48" s="3">
+        <v>3926.7339999999999</v>
+      </c>
+      <c r="L48" s="3">
+        <v>5140.5129999999999</v>
+      </c>
+      <c r="M48" s="3">
+        <v>6709.6220000000003</v>
+      </c>
+      <c r="N48" s="3">
+        <v>8144.7089999999998</v>
+      </c>
+      <c r="O48" s="3">
+        <v>7949.4650000000001</v>
+      </c>
+      <c r="P48" s="3">
+        <v>10837.325999999999</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>13203.57</v>
+      </c>
+      <c r="R48" s="3">
+        <v>14399.178</v>
+      </c>
+      <c r="S48" s="3">
+        <v>16351.242</v>
+      </c>
+      <c r="T48" s="3">
+        <v>18868.637999999999</v>
+      </c>
+      <c r="U48" s="3">
+        <v>21699.078000000001</v>
+      </c>
+      <c r="V48" s="3">
+        <v>24626.022000000001</v>
+      </c>
+      <c r="W48" s="3">
+        <v>27342.302</v>
+      </c>
+      <c r="X48" s="3">
+        <v>30106.723000000002</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>32127.21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="3">
+        <v>723.94</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1006.251</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1064.5060000000001</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1390.1880000000001</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1715.4690000000001</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1870.635</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2034.758</v>
+      </c>
+      <c r="M49" s="3">
+        <v>2539.2579999999998</v>
+      </c>
+      <c r="N49" s="3">
+        <v>3271.5929999999998</v>
+      </c>
+      <c r="O49" s="3">
+        <v>2853.2240000000002</v>
+      </c>
+      <c r="P49" s="3">
+        <v>3511.4720000000002</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>4478.223</v>
+      </c>
+      <c r="R49" s="3">
+        <v>4763.8190000000004</v>
+      </c>
+      <c r="S49" s="3">
+        <v>5371.7740000000003</v>
+      </c>
+      <c r="T49" s="3">
+        <v>4392.6480000000001</v>
+      </c>
+      <c r="U49" s="3">
+        <v>6438.28</v>
+      </c>
+      <c r="V49" s="3">
+        <v>7395.4489999999996</v>
+      </c>
+      <c r="W49" s="3">
+        <v>8545.6149999999998</v>
+      </c>
+      <c r="X49" s="3">
+        <v>8023.7380000000003</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>8529.0949999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="3">
+        <v>112.358</v>
+      </c>
+      <c r="G50" s="3">
+        <v>166.65</v>
+      </c>
+      <c r="H50" s="3">
+        <v>192.52699999999999</v>
+      </c>
+      <c r="I50" s="3">
+        <v>260.82600000000002</v>
+      </c>
+      <c r="J50" s="3">
+        <v>309.99</v>
+      </c>
+      <c r="K50" s="3">
+        <v>398.584</v>
+      </c>
+      <c r="L50" s="3">
+        <v>468.89800000000002</v>
+      </c>
+      <c r="M50" s="3">
+        <v>611.97400000000005</v>
+      </c>
+      <c r="N50" s="3">
+        <v>845.05700000000002</v>
+      </c>
+      <c r="O50" s="3">
+        <v>809.70100000000002</v>
+      </c>
+      <c r="P50" s="3">
+        <v>927.26300000000003</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>1025.204</v>
+      </c>
+      <c r="R50" s="3">
+        <v>1127.913</v>
+      </c>
+      <c r="S50" s="3">
+        <v>1226.079</v>
+      </c>
+      <c r="T50" s="3">
+        <v>1063.528</v>
+      </c>
+      <c r="U50" s="3">
+        <v>1123.8800000000001</v>
+      </c>
+      <c r="V50" s="3">
+        <v>1194.797</v>
+      </c>
+      <c r="W50" s="3">
+        <v>1542.441</v>
+      </c>
+      <c r="X50" s="3">
+        <v>1974.2080000000001</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>2529.759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="3">
+        <v>773.31500000000005</v>
+      </c>
+      <c r="G51" s="3">
+        <v>920.58799999999997</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1140.904</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1507.5450000000001</v>
+      </c>
+      <c r="J51" s="3">
+        <v>2001.7329999999999</v>
+      </c>
+      <c r="K51" s="3">
+        <v>2732.1509999999998</v>
+      </c>
+      <c r="L51" s="3">
+        <v>3287.81</v>
+      </c>
+      <c r="M51" s="3">
+        <v>4069.8530000000001</v>
+      </c>
+      <c r="N51" s="3">
+        <v>4354.4229999999998</v>
+      </c>
+      <c r="O51" s="3">
+        <v>4517.5280000000002</v>
+      </c>
+      <c r="P51" s="3">
+        <v>4692.6909999999998</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>5089.1869999999999</v>
+      </c>
+      <c r="R51" s="3">
+        <v>5528.5379999999996</v>
+      </c>
+      <c r="S51" s="3">
+        <v>5770.5569999999998</v>
+      </c>
+      <c r="T51" s="3">
+        <v>6834.3339999999998</v>
+      </c>
+      <c r="U51" s="3">
+        <v>7362.4669999999996</v>
+      </c>
+      <c r="V51" s="3">
+        <v>7612.8180000000002</v>
+      </c>
+      <c r="W51" s="3">
+        <v>8078.7330000000002</v>
+      </c>
+      <c r="X51" s="3">
+        <v>9058.2469999999994</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>10565.546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="3">
+        <v>843.49400000000003</v>
+      </c>
+      <c r="G52" s="3">
+        <v>862.529</v>
+      </c>
+      <c r="H52" s="3">
+        <v>979.15</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1251.894</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1516.932</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1726.8150000000001</v>
+      </c>
+      <c r="L52" s="3">
+        <v>2224.7730000000001</v>
+      </c>
+      <c r="M52" s="3">
+        <v>3223.34</v>
+      </c>
+      <c r="N52" s="3">
+        <v>3781.2260000000001</v>
+      </c>
+      <c r="O52" s="3">
+        <v>3850.8789999999999</v>
+      </c>
+      <c r="P52" s="3">
+        <v>3475.6419999999998</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>3062.0410000000002</v>
+      </c>
+      <c r="R52" s="3">
+        <v>3089.81</v>
+      </c>
+      <c r="S52" s="3">
+        <v>3374.0430000000001</v>
+      </c>
+      <c r="T52" s="3">
+        <v>4275.8410000000003</v>
+      </c>
+      <c r="U52" s="3">
+        <v>4069.8589999999999</v>
+      </c>
+      <c r="V52" s="3">
+        <v>4272.4179999999997</v>
+      </c>
+      <c r="W52" s="3">
+        <v>4609.0169999999998</v>
+      </c>
+      <c r="X52" s="3">
+        <v>5307.0929999999998</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>5953.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="3">
+        <v>416.19299999999998</v>
+      </c>
+      <c r="G53" s="3">
+        <v>482.10399999999998</v>
+      </c>
+      <c r="H53" s="3">
+        <v>597.18299999999999</v>
+      </c>
+      <c r="I53" s="3">
+        <v>707.79100000000005</v>
+      </c>
+      <c r="J53" s="3">
+        <v>756.76700000000005</v>
+      </c>
+      <c r="K53" s="3">
+        <v>928.89700000000005</v>
+      </c>
+      <c r="L53" s="3">
+        <v>1187.8689999999999</v>
+      </c>
+      <c r="M53" s="3">
+        <v>1926.7449999999999</v>
+      </c>
+      <c r="N53" s="3">
+        <v>3122.2919999999999</v>
+      </c>
+      <c r="O53" s="3">
+        <v>3204.4839999999999</v>
+      </c>
+      <c r="P53" s="3">
+        <v>8812.7260000000006</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>10174.994000000001</v>
+      </c>
+      <c r="R53" s="3">
+        <v>10604.16</v>
+      </c>
+      <c r="S53" s="3">
+        <v>11211.333000000001</v>
+      </c>
+      <c r="T53" s="3">
+        <v>11831.474</v>
+      </c>
+      <c r="U53" s="3">
+        <v>13832.655000000001</v>
+      </c>
+      <c r="V53" s="3">
+        <v>14416.448</v>
+      </c>
+      <c r="W53" s="3">
+        <v>14349.143</v>
+      </c>
+      <c r="X53" s="3">
+        <v>15302.225</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>15901.009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="3">
+        <v>272.55799999999999</v>
+      </c>
+      <c r="G54" s="3">
+        <v>389.024</v>
+      </c>
+      <c r="H54" s="3">
+        <v>508.93900000000002</v>
+      </c>
+      <c r="I54" s="3">
+        <v>625.97299999999996</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1029.2</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1213.297</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1385.0740000000001</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1134.075</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1313.828</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1193.03</v>
+      </c>
+      <c r="P54" s="3">
+        <v>1683.3119999999999</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1800.538</v>
+      </c>
+      <c r="R54" s="3">
+        <v>1983.3879999999999</v>
+      </c>
+      <c r="S54" s="3">
+        <v>2259.7779999999998</v>
+      </c>
+      <c r="T54" s="3">
+        <v>2713.7359999999999</v>
+      </c>
+      <c r="U54" s="3">
+        <v>2946.451</v>
+      </c>
+      <c r="V54" s="3">
+        <v>3367.873</v>
+      </c>
+      <c r="W54" s="3">
+        <v>3508.0749999999998</v>
+      </c>
+      <c r="X54" s="3">
+        <v>3947.4090000000001</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>4570.67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="3">
+        <v>185.95599999999999</v>
+      </c>
+      <c r="G55" s="3">
+        <v>267.45800000000003</v>
+      </c>
+      <c r="H55" s="3">
+        <v>284.44499999999999</v>
+      </c>
+      <c r="I55" s="3">
+        <v>372.59</v>
+      </c>
+      <c r="J55" s="3">
+        <v>502.01900000000001</v>
+      </c>
+      <c r="K55" s="3">
+        <v>545.98299999999995</v>
+      </c>
+      <c r="L55" s="3">
+        <v>708.29700000000003</v>
+      </c>
+      <c r="M55" s="3">
+        <v>945.97400000000005</v>
+      </c>
+      <c r="N55" s="3">
+        <v>1082.229</v>
+      </c>
+      <c r="O55" s="3">
+        <v>954.18200000000002</v>
+      </c>
+      <c r="P55" s="3">
+        <v>953.86099999999999</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>823.98299999999995</v>
+      </c>
+      <c r="R55" s="3">
+        <v>932.71</v>
+      </c>
+      <c r="S55" s="3">
+        <v>1147.5709999999999</v>
+      </c>
+      <c r="T55" s="3">
+        <v>1184.2929999999999</v>
+      </c>
+      <c r="U55" s="3">
+        <v>1696.4159999999999</v>
+      </c>
+      <c r="V55" s="3">
+        <v>1676.0519999999999</v>
+      </c>
+      <c r="W55" s="3">
+        <v>1958.4659999999999</v>
+      </c>
+      <c r="X55" s="3">
+        <v>2526.444</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>2994.6559999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="3">
+        <v>571.14400000000001</v>
+      </c>
+      <c r="G56" s="3">
+        <v>671.13499999999999</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1269.704</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1379.2619999999999</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1337.682</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1607.442</v>
+      </c>
+      <c r="L56" s="3">
+        <v>2101.09</v>
+      </c>
+      <c r="M56" s="3">
+        <v>2453.125</v>
+      </c>
+      <c r="N56" s="3">
+        <v>2642.0079999999998</v>
+      </c>
+      <c r="O56" s="3">
+        <v>2856.998</v>
+      </c>
+      <c r="P56" s="3">
+        <v>2748.2020000000002</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>3046.2730000000001</v>
+      </c>
+      <c r="R56" s="3">
+        <v>3431.2080000000001</v>
+      </c>
+      <c r="S56" s="3">
+        <v>3988.8649999999998</v>
+      </c>
+      <c r="T56" s="3">
+        <v>4095.8850000000002</v>
+      </c>
+      <c r="U56" s="3">
+        <v>4621.0870000000004</v>
+      </c>
+      <c r="V56" s="3">
+        <v>5010.7389999999996</v>
+      </c>
+      <c r="W56" s="3">
+        <v>6003.8819999999996</v>
+      </c>
+      <c r="X56" s="3">
+        <v>6456.866</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>7094.7340000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="3">
+        <v>826.447</v>
+      </c>
+      <c r="G57" s="3">
+        <v>964.80499999999995</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1231.0719999999999</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1575.885</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1734.9110000000001</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2109.654</v>
+      </c>
+      <c r="L57" s="3">
+        <v>2632.0430000000001</v>
+      </c>
+      <c r="M57" s="3">
+        <v>3058.0250000000001</v>
+      </c>
+      <c r="N57" s="3">
+        <v>3523.348</v>
+      </c>
+      <c r="O57" s="3">
+        <v>4250.415</v>
+      </c>
+      <c r="P57" s="3">
+        <v>4891.2430000000004</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>5228.5749999999998</v>
+      </c>
+      <c r="R57" s="3">
+        <v>5838.0010000000002</v>
+      </c>
+      <c r="S57" s="3">
+        <v>6082.384</v>
+      </c>
+      <c r="T57" s="3">
+        <v>6026.6329999999998</v>
+      </c>
+      <c r="U57" s="3">
+        <v>6792.1210000000001</v>
+      </c>
+      <c r="V57" s="3">
+        <v>7066.4780000000001</v>
+      </c>
+      <c r="W57" s="3">
+        <v>7482.4480000000003</v>
+      </c>
+      <c r="X57" s="3">
+        <v>8236.1450000000004</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>9341.3490000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="3">
+        <v>349.76499999999999</v>
+      </c>
+      <c r="G58" s="3">
+        <v>443.04599999999999</v>
+      </c>
+      <c r="H58" s="3">
+        <v>754.904</v>
+      </c>
+      <c r="I58" s="3">
+        <v>935.65099999999995</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1195.4880000000001</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1258.1949999999999</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1493.3869999999999</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1956.13</v>
+      </c>
+      <c r="N58" s="3">
+        <v>2349.8789999999999</v>
+      </c>
+      <c r="O58" s="3">
+        <v>2671.4490000000001</v>
+      </c>
+      <c r="P58" s="3">
+        <v>2998.1729999999998</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>3314.3649999999998</v>
+      </c>
+      <c r="R58" s="3">
+        <v>3830.8110000000001</v>
+      </c>
+      <c r="S58" s="3">
+        <v>4155.7280000000001</v>
+      </c>
+      <c r="T58" s="3">
+        <v>4394.7449999999999</v>
+      </c>
+      <c r="U58" s="3">
+        <v>4855.5820000000003</v>
+      </c>
+      <c r="V58" s="3">
+        <v>5479.2920000000004</v>
+      </c>
+      <c r="W58" s="3">
+        <v>6562.9920000000002</v>
+      </c>
+      <c r="X58" s="3">
+        <v>7117.7259999999997</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>8610.527</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="3">
+        <v>101.059</v>
+      </c>
+      <c r="G59" s="3">
+        <v>170.77</v>
+      </c>
+      <c r="H59" s="3">
+        <v>125.66800000000001</v>
+      </c>
+      <c r="I59" s="3">
+        <v>165.36500000000001</v>
+      </c>
+      <c r="J59" s="3">
+        <v>221.393</v>
+      </c>
+      <c r="K59" s="3">
+        <v>304.65199999999999</v>
+      </c>
+      <c r="L59" s="3">
+        <v>415.10300000000001</v>
+      </c>
+      <c r="M59" s="3">
+        <v>630.505</v>
+      </c>
+      <c r="N59" s="3">
+        <v>431.666</v>
+      </c>
+      <c r="O59" s="3">
+        <v>427.17</v>
+      </c>
+      <c r="P59" s="3">
+        <v>504.85300000000001</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>570.649</v>
+      </c>
+      <c r="R59" s="3">
+        <v>669.64499999999998</v>
+      </c>
+      <c r="S59" s="3">
+        <v>736.94100000000003</v>
+      </c>
+      <c r="T59" s="3">
+        <v>707.91200000000003</v>
+      </c>
+      <c r="U59" s="3">
+        <v>937.81899999999996</v>
+      </c>
+      <c r="V59" s="3">
+        <v>1082.126</v>
+      </c>
+      <c r="W59" s="3">
+        <v>907.38900000000001</v>
+      </c>
+      <c r="X59" s="3">
+        <v>1101.5219999999999</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>1565.84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="3">
+        <v>85.731999999999999</v>
+      </c>
+      <c r="G60" s="3">
+        <v>95.908000000000001</v>
+      </c>
+      <c r="H60" s="3">
+        <v>141.65100000000001</v>
+      </c>
+      <c r="I60" s="3">
+        <v>179.23599999999999</v>
+      </c>
+      <c r="J60" s="3">
+        <v>229.608</v>
+      </c>
+      <c r="K60" s="3">
+        <v>304.92599999999999</v>
+      </c>
+      <c r="L60" s="3">
+        <v>387.50200000000001</v>
+      </c>
+      <c r="M60" s="3">
+        <v>516.93200000000002</v>
+      </c>
+      <c r="N60" s="3">
+        <v>508.04399999999998</v>
+      </c>
+      <c r="O60" s="3">
+        <v>597.97500000000002</v>
+      </c>
+      <c r="P60" s="3">
+        <v>848.40800000000002</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>975.72299999999996</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1112.336</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1262.838</v>
+      </c>
+      <c r="T60" s="3">
+        <v>1256.885</v>
+      </c>
+      <c r="U60" s="3">
+        <v>1503.8330000000001</v>
+      </c>
+      <c r="V60" s="3">
+        <v>1932.415</v>
+      </c>
+      <c r="W60" s="3">
+        <v>2167.3829999999998</v>
+      </c>
+      <c r="X60" s="3">
+        <v>2317.9569999999999</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>2530.9209999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="3">
+        <v>22.724</v>
+      </c>
+      <c r="H61" s="3">
+        <v>34.765000000000001</v>
+      </c>
+      <c r="I61" s="3">
+        <v>80.718000000000004</v>
+      </c>
+      <c r="J61" s="3">
+        <v>44.261000000000003</v>
+      </c>
+      <c r="K61" s="3">
+        <v>52.991999999999997</v>
+      </c>
+      <c r="L61" s="3">
+        <v>95.430999999999997</v>
+      </c>
+      <c r="M61" s="3">
+        <v>131.136</v>
+      </c>
+      <c r="N61" s="3">
+        <v>136.57300000000001</v>
+      </c>
+      <c r="O61" s="3">
+        <v>151.459</v>
+      </c>
+      <c r="P61" s="3">
+        <v>166.58699999999999</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>121.691</v>
+      </c>
+      <c r="R61" s="3">
+        <v>123.672</v>
+      </c>
+      <c r="S61" s="3">
+        <v>173.27</v>
+      </c>
+      <c r="T61" s="3">
+        <v>323.78699999999998</v>
+      </c>
+      <c r="U61" s="3">
+        <v>383.19600000000003</v>
+      </c>
+      <c r="V61" s="3">
+        <v>404.69900000000001</v>
+      </c>
+      <c r="W61" s="3">
+        <v>416.16899999999998</v>
+      </c>
+      <c r="X61" s="3">
+        <v>492.34</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>461.41699999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="3">
+        <v>14401.603999999999</v>
+      </c>
+      <c r="G62" s="3">
+        <v>17205.98</v>
+      </c>
+      <c r="H62" s="3">
+        <v>20151.983</v>
+      </c>
+      <c r="I62" s="3">
+        <v>24170.074000000001</v>
+      </c>
+      <c r="J62" s="3">
+        <v>28247.407999999999</v>
+      </c>
+      <c r="K62" s="3">
+        <v>32372.789000000001</v>
+      </c>
+      <c r="L62" s="3">
+        <v>38455.237999999998</v>
+      </c>
+      <c r="M62" s="3">
+        <v>45628.665000000001</v>
+      </c>
+      <c r="N62" s="3">
+        <v>53082.669000000002</v>
+      </c>
+      <c r="O62" s="3">
+        <v>51793.955999999998</v>
+      </c>
+      <c r="P62" s="3">
+        <v>74310.591</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>84813.668000000005</v>
+      </c>
+      <c r="R62" s="3">
+        <v>90938.525999999998</v>
+      </c>
+      <c r="S62" s="3">
+        <v>102741.876</v>
+      </c>
+      <c r="T62" s="3">
+        <v>114418.239</v>
+      </c>
+      <c r="U62" s="3">
+        <v>128050.092</v>
+      </c>
+      <c r="V62" s="3">
+        <v>139083.128</v>
+      </c>
+      <c r="W62" s="3">
+        <v>151940.98199999999</v>
+      </c>
+      <c r="X62" s="3">
+        <v>163026.141</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>178952.28899999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <hyperlinks>
+    <hyperlink ref="B65" r:id="rId1" xr:uid="{93F55568-1B2F-4E94-A57A-3086A3961CDF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC8C58D-ED9F-4A89-A66F-7E4C35460F5F}">
+  <dimension ref="E8:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="39.1640625" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>